--- a/static/Chinese Vocab Community.xlsx
+++ b/static/Chinese Vocab Community.xlsx
@@ -3,7 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="ep 1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="osu! writeup" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="1132">
   <si>
     <t>Characters</t>
   </si>
@@ -2134,6 +2135,12 @@
     <t>note, inject</t>
   </si>
   <si>
+    <t>注册</t>
+  </si>
+  <si>
+    <t>register</t>
+  </si>
+  <si>
     <t>意</t>
   </si>
   <si>
@@ -2348,6 +2355,1059 @@
   </si>
   <si>
     <t>easy going</t>
+  </si>
+  <si>
+    <t>当</t>
+  </si>
+  <si>
+    <t>dāng</t>
+  </si>
+  <si>
+    <t>equal, work as, manage</t>
+  </si>
+  <si>
+    <t>当然</t>
+  </si>
+  <si>
+    <t>dāngrán</t>
+  </si>
+  <si>
+    <t>certainly</t>
+  </si>
+  <si>
+    <t>邀</t>
+  </si>
+  <si>
+    <t>yāo</t>
+  </si>
+  <si>
+    <t>invite</t>
+  </si>
+  <si>
+    <t>出</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chū		</t>
+  </si>
+  <si>
+    <t>come out, put out</t>
+  </si>
+  <si>
+    <t>任何</t>
+  </si>
+  <si>
+    <t>rènhé</t>
+  </si>
+  <si>
+    <t>any</t>
+  </si>
+  <si>
+    <t>由来</t>
+  </si>
+  <si>
+    <t>yóulái</t>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>给</t>
+  </si>
+  <si>
+    <t>gěi</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>联系</t>
+  </si>
+  <si>
+    <t>liánxì</t>
+  </si>
+  <si>
+    <t>connect</t>
+  </si>
+  <si>
+    <t>酷</t>
+  </si>
+  <si>
+    <t>kù</t>
+  </si>
+  <si>
+    <t>cool (not temp)</t>
+  </si>
+  <si>
+    <t>像</t>
+  </si>
+  <si>
+    <t>similar</t>
+  </si>
+  <si>
+    <t>电影</t>
+  </si>
+  <si>
+    <t>diànyǐng</t>
+  </si>
+  <si>
+    <t>movie</t>
+  </si>
+  <si>
+    <t>餐</t>
+  </si>
+  <si>
+    <t>cān</t>
+  </si>
+  <si>
+    <t>meal</t>
+  </si>
+  <si>
+    <t>俱</t>
+  </si>
+  <si>
+    <t>jù</t>
+  </si>
+  <si>
+    <t>俱乐部</t>
+  </si>
+  <si>
+    <t>jùlèbù</t>
+  </si>
+  <si>
+    <t>club</t>
+  </si>
+  <si>
+    <t>相</t>
+  </si>
+  <si>
+    <t>xiāng</t>
+  </si>
+  <si>
+    <t>mutually, picture</t>
+  </si>
+  <si>
+    <t>相信</t>
+  </si>
+  <si>
+    <t>xiāngxìn</t>
+  </si>
+  <si>
+    <t>trust</t>
+  </si>
+  <si>
+    <t>相对</t>
+  </si>
+  <si>
+    <t>xiāngduì</t>
+  </si>
+  <si>
+    <t>relative</t>
+  </si>
+  <si>
+    <t>憋</t>
+  </si>
+  <si>
+    <t>biē</t>
+  </si>
+  <si>
+    <t>supress, oppress</t>
+  </si>
+  <si>
+    <t>肚子</t>
+  </si>
+  <si>
+    <t>dùzi</t>
+  </si>
+  <si>
+    <t>stomach</t>
+  </si>
+  <si>
+    <t>烦心</t>
+  </si>
+  <si>
+    <t>fánxīn</t>
+  </si>
+  <si>
+    <t>痛哭</t>
+  </si>
+  <si>
+    <t>tòngkū</t>
+  </si>
+  <si>
+    <t>cry</t>
+  </si>
+  <si>
+    <t>伙</t>
+  </si>
+  <si>
+    <t>huǒ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partner </t>
+  </si>
+  <si>
+    <t>大伙</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>绪</t>
+  </si>
+  <si>
+    <t>xù</t>
+  </si>
+  <si>
+    <t>thread, clue</t>
+  </si>
+  <si>
+    <t>情绪</t>
+  </si>
+  <si>
+    <t>mood</t>
+  </si>
+  <si>
+    <t>腔</t>
+  </si>
+  <si>
+    <t>qiāng</t>
+  </si>
+  <si>
+    <t>cavity, accent</t>
+  </si>
+  <si>
+    <t>短</t>
+  </si>
+  <si>
+    <t>duǎn</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>读</t>
+  </si>
+  <si>
+    <t>dú</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>家伙</t>
+  </si>
+  <si>
+    <t>jiāhuǒ</t>
+  </si>
+  <si>
+    <t>guy (casual)</t>
+  </si>
+  <si>
+    <t>尿（尿）</t>
+  </si>
+  <si>
+    <t>niào</t>
+  </si>
+  <si>
+    <t>pee</t>
+  </si>
+  <si>
+    <t>奇怪</t>
+  </si>
+  <si>
+    <t>qíguài</t>
+  </si>
+  <si>
+    <t>strange</t>
+  </si>
+  <si>
+    <t>住</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>难住</t>
+  </si>
+  <si>
+    <t>stumped</t>
+  </si>
+  <si>
+    <t>确</t>
+  </si>
+  <si>
+    <t>què</t>
+  </si>
+  <si>
+    <t>correct, indeed</t>
+  </si>
+  <si>
+    <t>橄榄球</t>
+  </si>
+  <si>
+    <t>gǎnlǎnqiú</t>
+  </si>
+  <si>
+    <t>football</t>
+  </si>
+  <si>
+    <t>场</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chǎng	</t>
+  </si>
+  <si>
+    <t>field</t>
+  </si>
+  <si>
+    <t>缩</t>
+  </si>
+  <si>
+    <t>suō</t>
+  </si>
+  <si>
+    <t>shrink</t>
+  </si>
+  <si>
+    <t>钟</t>
+  </si>
+  <si>
+    <t>zhōng</t>
+  </si>
+  <si>
+    <t>bell</t>
+  </si>
+  <si>
+    <t>分钟</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>继续</t>
+  </si>
+  <si>
+    <t>jìxù</t>
+  </si>
+  <si>
+    <t>continue</t>
+  </si>
+  <si>
+    <t>动</t>
+  </si>
+  <si>
+    <t>dòng</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>词</t>
+  </si>
+  <si>
+    <t>cí</t>
+  </si>
+  <si>
+    <t>假</t>
+  </si>
+  <si>
+    <t>jiǎ</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>弄</t>
+  </si>
+  <si>
+    <t>nòng</t>
+  </si>
+  <si>
+    <t>alley, fetch</t>
+  </si>
+  <si>
+    <t>辨</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biàn		</t>
+  </si>
+  <si>
+    <t>distinguish</t>
+  </si>
+  <si>
+    <t>幼</t>
+  </si>
+  <si>
+    <t>young</t>
+  </si>
+  <si>
+    <t>混淆</t>
+  </si>
+  <si>
+    <t>hùnxiáo</t>
+  </si>
+  <si>
+    <t>confuse</t>
+  </si>
+  <si>
+    <t>要么</t>
+  </si>
+  <si>
+    <t>yàome</t>
+  </si>
+  <si>
+    <t>either</t>
+  </si>
+  <si>
+    <t>论</t>
+  </si>
+  <si>
+    <t>lùn</t>
+  </si>
+  <si>
+    <t>argument</t>
+  </si>
+  <si>
+    <t>不论</t>
+  </si>
+  <si>
+    <t>bǔlùn</t>
+  </si>
+  <si>
+    <t>whether, regardless</t>
+  </si>
+  <si>
+    <t>发生</t>
+  </si>
+  <si>
+    <t>fāshēng</t>
+  </si>
+  <si>
+    <t>occur</t>
+  </si>
+  <si>
+    <t>常</t>
+  </si>
+  <si>
+    <t>cháng</t>
+  </si>
+  <si>
+    <t>often</t>
+  </si>
+  <si>
+    <t>正常</t>
+  </si>
+  <si>
+    <t>zhèngcháng</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>道德</t>
+  </si>
+  <si>
+    <t>dàodé</t>
+  </si>
+  <si>
+    <t>morals</t>
+  </si>
+  <si>
+    <t>脱</t>
+  </si>
+  <si>
+    <t>tuō</t>
+  </si>
+  <si>
+    <t>come off, take off</t>
+  </si>
+  <si>
+    <t>脱口而出</t>
+  </si>
+  <si>
+    <t>blurt out</t>
+  </si>
+  <si>
+    <t>口</t>
+  </si>
+  <si>
+    <t>kǒu</t>
+  </si>
+  <si>
+    <t>mouth, opening</t>
+  </si>
+  <si>
+    <t>扮</t>
+  </si>
+  <si>
+    <t>bàn</t>
+  </si>
+  <si>
+    <t>pretend</t>
+  </si>
+  <si>
+    <t>心里</t>
+  </si>
+  <si>
+    <t>xīnlǐ</t>
+  </si>
+  <si>
+    <t>psychology</t>
+  </si>
+  <si>
+    <t>医生</t>
+  </si>
+  <si>
+    <t>yīshēng</t>
+  </si>
+  <si>
+    <t>doctor</t>
+  </si>
+  <si>
+    <t>卫</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wèi	</t>
+  </si>
+  <si>
+    <t>defend</t>
+  </si>
+  <si>
+    <t>尊</t>
+  </si>
+  <si>
+    <t>zūn</t>
+  </si>
+  <si>
+    <t>respect</t>
+  </si>
+  <si>
+    <t>接受</t>
+  </si>
+  <si>
+    <t>jiēshòu</t>
+  </si>
+  <si>
+    <t>accept</t>
+  </si>
+  <si>
+    <t>事实</t>
+  </si>
+  <si>
+    <t>shìshí</t>
+  </si>
+  <si>
+    <t>fact</t>
+  </si>
+  <si>
+    <t>胆</t>
+  </si>
+  <si>
+    <t>dǎn</t>
+  </si>
+  <si>
+    <t>courage</t>
+  </si>
+  <si>
+    <t>胆小鬼</t>
+  </si>
+  <si>
+    <t>coward</t>
+  </si>
+  <si>
+    <t>鬼</t>
+  </si>
+  <si>
+    <t>guǐ</t>
+  </si>
+  <si>
+    <t>ghost, sinister</t>
+  </si>
+  <si>
+    <t>授</t>
+  </si>
+  <si>
+    <t>shòu</t>
+  </si>
+  <si>
+    <t>teach</t>
+  </si>
+  <si>
+    <t>姑</t>
+  </si>
+  <si>
+    <t>gū</t>
+  </si>
+  <si>
+    <t>aunt (paternal side)</t>
+  </si>
+  <si>
+    <t>娘</t>
+  </si>
+  <si>
+    <t>niǎng</t>
+  </si>
+  <si>
+    <t>mother</t>
+  </si>
+  <si>
+    <t>姑娘</t>
+  </si>
+  <si>
+    <t>gūniǎng</t>
+  </si>
+  <si>
+    <t>girl</t>
+  </si>
+  <si>
+    <t>形</t>
+  </si>
+  <si>
+    <t>xíng</t>
+  </si>
+  <si>
+    <t>shape</t>
+  </si>
+  <si>
+    <t>吼</t>
+  </si>
+  <si>
+    <t>hǒu</t>
+  </si>
+  <si>
+    <t>yell</t>
+  </si>
+  <si>
+    <t>客</t>
+  </si>
+  <si>
+    <t>kè</t>
+  </si>
+  <si>
+    <t>guest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">客气	</t>
+  </si>
+  <si>
+    <t>polite</t>
+  </si>
+  <si>
+    <t>嘴</t>
+  </si>
+  <si>
+    <t>zuǐ</t>
+  </si>
+  <si>
+    <t>mouth</t>
+  </si>
+  <si>
+    <t>结</t>
+  </si>
+  <si>
+    <t>jié</t>
+  </si>
+  <si>
+    <t>knot</t>
+  </si>
+  <si>
+    <t>束</t>
+  </si>
+  <si>
+    <t>bundle</t>
+  </si>
+  <si>
+    <t>结束</t>
+  </si>
+  <si>
+    <t>jiéshù</t>
+  </si>
+  <si>
+    <t>finish</t>
+  </si>
+  <si>
+    <t>临时</t>
+  </si>
+  <si>
+    <t>línshí</t>
+  </si>
+  <si>
+    <t>temporary</t>
+  </si>
+  <si>
+    <t>保</t>
+  </si>
+  <si>
+    <t>save protect</t>
+  </si>
+  <si>
+    <t>保姆</t>
+  </si>
+  <si>
+    <t>bǎomǔ</t>
+  </si>
+  <si>
+    <t>baby sit</t>
+  </si>
+  <si>
+    <t>颁</t>
+  </si>
+  <si>
+    <t>issue, award</t>
+  </si>
+  <si>
+    <t>从</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cóng	</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>棒</t>
+  </si>
+  <si>
+    <t>bàng</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>棒得没法</t>
+  </si>
+  <si>
+    <t>too good to be true</t>
+  </si>
+  <si>
+    <t>几</t>
+  </si>
+  <si>
+    <t>jǐ</t>
+  </si>
+  <si>
+    <t>several</t>
+  </si>
+  <si>
+    <t>洗</t>
+  </si>
+  <si>
+    <t>xǐ</t>
+  </si>
+  <si>
+    <t>wash</t>
+  </si>
+  <si>
+    <t>间</t>
+  </si>
+  <si>
+    <t>jiān</t>
+  </si>
+  <si>
+    <t>between</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chinese </t>
+  </si>
+  <si>
+    <t>Def</t>
+  </si>
+  <si>
+    <t>should have known</t>
+  </si>
+  <si>
+    <t xml:space="preserve">read </t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>取</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qǔ	</t>
+  </si>
+  <si>
+    <t>pick, take</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>档</t>
+  </si>
+  <si>
+    <t>dàng</t>
+  </si>
+  <si>
+    <t>files, pigeonhole</t>
+  </si>
+  <si>
+    <t>案</t>
+  </si>
+  <si>
+    <t>àn</t>
+  </si>
+  <si>
+    <t>case, proposal, file</t>
+  </si>
+  <si>
+    <t>谱</t>
+  </si>
+  <si>
+    <t>pǔ</t>
+  </si>
+  <si>
+    <t>music, list, spectrum</t>
+  </si>
+  <si>
+    <t>面</t>
+  </si>
+  <si>
+    <t>miàn</t>
+  </si>
+  <si>
+    <t>noodle, external</t>
+  </si>
+  <si>
+    <t>谱面</t>
+  </si>
+  <si>
+    <t>pǔmiàn</t>
+  </si>
+  <si>
+    <t>chart</t>
+  </si>
+  <si>
+    <t>记录</t>
+  </si>
+  <si>
+    <t>jìlù</t>
+  </si>
+  <si>
+    <t>record</t>
+  </si>
+  <si>
+    <t>计算</t>
+  </si>
+  <si>
+    <t>jìsuàn</t>
+  </si>
+  <si>
+    <t>calculate</t>
+  </si>
+  <si>
+    <t>标</t>
+  </si>
+  <si>
+    <t>biāo</t>
+  </si>
+  <si>
+    <t>mark</t>
+  </si>
+  <si>
+    <t>目标</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>排</t>
+  </si>
+  <si>
+    <t>pái</t>
+  </si>
+  <si>
+    <t>row</t>
+  </si>
+  <si>
+    <t>排行</t>
+  </si>
+  <si>
+    <t>páiháng</t>
+  </si>
+  <si>
+    <t>ranking</t>
+  </si>
+  <si>
+    <t>榜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bǎng	</t>
+  </si>
+  <si>
+    <t>list, notice</t>
+  </si>
+  <si>
+    <t>拿</t>
+  </si>
+  <si>
+    <t>ná</t>
+  </si>
+  <si>
+    <t>take</t>
+  </si>
+  <si>
+    <t>not fucking 事</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quiet </t>
+  </si>
+  <si>
+    <t>态</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tài		</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>静态</t>
+  </si>
+  <si>
+    <t>jìngtài</t>
+  </si>
+  <si>
+    <t>static</t>
+  </si>
+  <si>
+    <t>低</t>
+  </si>
+  <si>
+    <t>dī</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>脚</t>
+  </si>
+  <si>
+    <t>jiǎo</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>脚本</t>
+  </si>
+  <si>
+    <t>jiǎoběn</t>
+  </si>
+  <si>
+    <t>script</t>
+  </si>
+  <si>
+    <t>改</t>
+  </si>
+  <si>
+    <t>gǎi</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>改写</t>
+  </si>
+  <si>
+    <t>gǎixiě</t>
+  </si>
+  <si>
+    <t>rewrite</t>
+  </si>
+  <si>
+    <t>能过</t>
+  </si>
+  <si>
+    <t>néngguò</t>
+  </si>
+  <si>
+    <t>can pass</t>
+  </si>
+  <si>
+    <t>边</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biān	</t>
+  </si>
+  <si>
+    <t>side</t>
+  </si>
+  <si>
+    <t>配</t>
+  </si>
+  <si>
+    <t>pèi</t>
+  </si>
+  <si>
+    <t>match</t>
+  </si>
+  <si>
+    <t>随</t>
+  </si>
+  <si>
+    <t>suí</t>
+  </si>
+  <si>
+    <t>follow, adapt</t>
+  </si>
+  <si>
+    <t>随便</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suíbiàn	</t>
+  </si>
+  <si>
+    <t>casual, feel free to, etc</t>
+  </si>
+  <si>
+    <t>爆炸</t>
+  </si>
+  <si>
+    <t>bàozhà</t>
+  </si>
+  <si>
+    <t>explode, blow out</t>
+  </si>
+  <si>
+    <t>方法</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fāngfǎ		</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>不过</t>
+  </si>
+  <si>
+    <t>bùguò</t>
+  </si>
+  <si>
+    <t xml:space="preserve">but </t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>帐</t>
+  </si>
+  <si>
+    <t>zhàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">account, tent </t>
+  </si>
+  <si>
+    <t>号</t>
+  </si>
+  <si>
+    <t>hào</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number </t>
   </si>
 </sst>
 </file>
@@ -2397,6 +3457,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -5222,58 +6286,64 @@
       <c r="C219" s="1" t="s">
         <v>706</v>
       </c>
+      <c r="D219" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>708</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>251</v>
@@ -5281,82 +6351,82 @@
     </row>
     <row r="224">
       <c r="A224" s="1" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>327</v>
@@ -5364,38 +6434,38 @@
     </row>
     <row r="231">
       <c r="A231" s="1" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>600</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>330</v>
@@ -5403,101 +6473,1531 @@
     </row>
     <row r="234">
       <c r="A234" s="1" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>778</v>
+        <v>780</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E320" s="1" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>1131</v>
       </c>
     </row>
   </sheetData>

--- a/static/Chinese Vocab Community.xlsx
+++ b/static/Chinese Vocab Community.xlsx
@@ -4,7 +4,8 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="ep 1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="osu! writeup" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Sheet3" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="osu! writeup" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="1132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="1132">
   <si>
     <t>Characters</t>
   </si>
@@ -3461,6 +3462,10 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -7526,6 +7531,187 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
         <v>1031</v>
       </c>
       <c r="B1" s="1" t="s">

--- a/static/Chinese Vocab Community.xlsx
+++ b/static/Chinese Vocab Community.xlsx
@@ -4,8 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="ep 1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Sheet3" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="osu! writeup" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="osu! writeup" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="1132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="1547">
   <si>
     <t>Characters</t>
   </si>
@@ -3108,6 +3107,1266 @@
     <t>between</t>
   </si>
   <si>
+    <t xml:space="preserve">带走	</t>
+  </si>
+  <si>
+    <t>dàizǒu</t>
+  </si>
+  <si>
+    <t>take away</t>
+  </si>
+  <si>
+    <t>套</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tào	</t>
+  </si>
+  <si>
+    <t>cover, harness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">外套	</t>
+  </si>
+  <si>
+    <t>wàitào</t>
+  </si>
+  <si>
+    <t>jacket</t>
+  </si>
+  <si>
+    <t>钱</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>钥匙</t>
+  </si>
+  <si>
+    <t>yàoshi</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>防</t>
+  </si>
+  <si>
+    <t>fáng</t>
+  </si>
+  <si>
+    <t>以防</t>
+  </si>
+  <si>
+    <t>yǐfáng</t>
+  </si>
+  <si>
+    <t>in case</t>
+  </si>
+  <si>
+    <t>灾</t>
+  </si>
+  <si>
+    <t>zāi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disaster </t>
+  </si>
+  <si>
+    <t>起</t>
+  </si>
+  <si>
+    <t>qǐ</t>
+  </si>
+  <si>
+    <t>rise, begin</t>
+  </si>
+  <si>
+    <t>留</t>
+  </si>
+  <si>
+    <t>liú</t>
+  </si>
+  <si>
+    <t>keep, remain</t>
+  </si>
+  <si>
+    <t>贫</t>
+  </si>
+  <si>
+    <t>pín</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>窟</t>
+  </si>
+  <si>
+    <t>kū</t>
+  </si>
+  <si>
+    <t>cave</t>
+  </si>
+  <si>
+    <t>贫窟</t>
+  </si>
+  <si>
+    <t>pínkū</t>
+  </si>
+  <si>
+    <t>slum</t>
+  </si>
+  <si>
+    <t>百</t>
+  </si>
+  <si>
+    <t>bǎi</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>万</t>
+  </si>
+  <si>
+    <t>wàn</t>
+  </si>
+  <si>
+    <t>10,000</t>
+  </si>
+  <si>
+    <t>富</t>
+  </si>
+  <si>
+    <t>rich</t>
+  </si>
+  <si>
+    <t>翁</t>
+  </si>
+  <si>
+    <t>wēng</t>
+  </si>
+  <si>
+    <t>old man</t>
+  </si>
+  <si>
+    <t>族</t>
+  </si>
+  <si>
+    <t>zú</t>
+  </si>
+  <si>
+    <t>clan, ethnic, race</t>
+  </si>
+  <si>
+    <t>视</t>
+  </si>
+  <si>
+    <t>see, inspect</t>
+  </si>
+  <si>
+    <t>歧视</t>
+  </si>
+  <si>
+    <t>qíshì</t>
+  </si>
+  <si>
+    <t>discriminate</t>
+  </si>
+  <si>
+    <t>倾向</t>
+  </si>
+  <si>
+    <t>qīngxiàng</t>
+  </si>
+  <si>
+    <t>tendency</t>
+  </si>
+  <si>
+    <t>抓</t>
+  </si>
+  <si>
+    <t>zhuā</t>
+  </si>
+  <si>
+    <t>catch</t>
+  </si>
+  <si>
+    <t>烟</t>
+  </si>
+  <si>
+    <t>yān</t>
+  </si>
+  <si>
+    <t>cigarette</t>
+  </si>
+  <si>
+    <t>枪</t>
+  </si>
+  <si>
+    <t>gun</t>
+  </si>
+  <si>
+    <t>烟枪</t>
+  </si>
+  <si>
+    <t>yānqiāng</t>
+  </si>
+  <si>
+    <t>bong, smoker</t>
+  </si>
+  <si>
+    <t>滤</t>
+  </si>
+  <si>
+    <t>lǜ</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>抽</t>
+  </si>
+  <si>
+    <t>chōu</t>
+  </si>
+  <si>
+    <t>smoke, pump</t>
+  </si>
+  <si>
+    <t>准</t>
+  </si>
+  <si>
+    <t>zhǔn</t>
+  </si>
+  <si>
+    <t>allow, standard</t>
+  </si>
+  <si>
+    <t>备</t>
+  </si>
+  <si>
+    <t>bèi</t>
+  </si>
+  <si>
+    <t>equipment</t>
+  </si>
+  <si>
+    <t>准备</t>
+  </si>
+  <si>
+    <t>zhǔnbèi</t>
+  </si>
+  <si>
+    <t>prepare</t>
+  </si>
+  <si>
+    <t>开始</t>
+  </si>
+  <si>
+    <t>kāishǐ</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>貌似</t>
+  </si>
+  <si>
+    <t>màosì</t>
+  </si>
+  <si>
+    <t>seemingly</t>
+  </si>
+  <si>
+    <t>成</t>
+  </si>
+  <si>
+    <t>chéng</t>
+  </si>
+  <si>
+    <t>become, succeed</t>
+  </si>
+  <si>
+    <t>成员</t>
+  </si>
+  <si>
+    <t>chéngyuán</t>
+  </si>
+  <si>
+    <t>member</t>
+  </si>
+  <si>
+    <t>招揽</t>
+  </si>
+  <si>
+    <t>zhāolǎn</t>
+  </si>
+  <si>
+    <t>solicit, attract</t>
+  </si>
+  <si>
+    <t>猜</t>
+  </si>
+  <si>
+    <t>cāi</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>类</t>
+  </si>
+  <si>
+    <t>lèi</t>
+  </si>
+  <si>
+    <t>kind, class</t>
+  </si>
+  <si>
+    <t>网</t>
+  </si>
+  <si>
+    <t>wǎng</t>
+  </si>
+  <si>
+    <t>net</t>
+  </si>
+  <si>
+    <t>网上</t>
+  </si>
+  <si>
+    <t>wǎngshāng</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>广</t>
+  </si>
+  <si>
+    <t>guǎng</t>
+  </si>
+  <si>
+    <t>wide, broad</t>
+  </si>
+  <si>
+    <t>告</t>
+  </si>
+  <si>
+    <t>gào</t>
+  </si>
+  <si>
+    <t>tell</t>
+  </si>
+  <si>
+    <t>广告</t>
+  </si>
+  <si>
+    <t>guǎnggào</t>
+  </si>
+  <si>
+    <t>advertise</t>
+  </si>
+  <si>
+    <t>曾</t>
+  </si>
+  <si>
+    <t>céng</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>绝</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jué	</t>
+  </si>
+  <si>
+    <t>absolutely</t>
+  </si>
+  <si>
+    <t>曾经·</t>
+  </si>
+  <si>
+    <t>céngjīng</t>
+  </si>
+  <si>
+    <t>训</t>
+  </si>
+  <si>
+    <t>xùn</t>
+  </si>
+  <si>
+    <t>train</t>
+  </si>
+  <si>
+    <t>朽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xiǔ	</t>
+  </si>
+  <si>
+    <t>rotten</t>
+  </si>
+  <si>
+    <t>雕</t>
+  </si>
+  <si>
+    <t>diāo</t>
+  </si>
+  <si>
+    <t>carve</t>
+  </si>
+  <si>
+    <t>木</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>朽木不可雕</t>
+  </si>
+  <si>
+    <t>xiǔmùbǔkědiāo</t>
+  </si>
+  <si>
+    <t>rotten wood can not be carved -- idiom for impossible tasks</t>
+  </si>
+  <si>
+    <t>是嘛</t>
+  </si>
+  <si>
+    <t>shīma</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>边</t>
+  </si>
+  <si>
+    <t>biān</t>
+  </si>
+  <si>
+    <t>side</t>
+  </si>
+  <si>
+    <t>边V边</t>
+  </si>
+  <si>
+    <t>while V</t>
+  </si>
+  <si>
+    <t>或</t>
+  </si>
+  <si>
+    <t>huò</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>或许</t>
+  </si>
+  <si>
+    <t>huòxǔ</t>
+  </si>
+  <si>
+    <t>perhaps</t>
+  </si>
+  <si>
+    <t>杯</t>
+  </si>
+  <si>
+    <t>bēi</t>
+  </si>
+  <si>
+    <t>cup, drink</t>
+  </si>
+  <si>
+    <t>清</t>
+  </si>
+  <si>
+    <t>qīng</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>分清</t>
+  </si>
+  <si>
+    <t>fēnqīng</t>
+  </si>
+  <si>
+    <t>主</t>
+  </si>
+  <si>
+    <t>zhǔ</t>
+  </si>
+  <si>
+    <t>host, primary</t>
+  </si>
+  <si>
+    <t>主次</t>
+  </si>
+  <si>
+    <t xml:space="preserve">primary and secondary </t>
+  </si>
+  <si>
+    <t>公主</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gōngzhǔ	</t>
+  </si>
+  <si>
+    <t>princess</t>
+  </si>
+  <si>
+    <t>溜</t>
+  </si>
+  <si>
+    <t>liū</t>
+  </si>
+  <si>
+    <t>slip</t>
+  </si>
+  <si>
+    <t>体</t>
+  </si>
+  <si>
+    <t>tǐ</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>奋</t>
+  </si>
+  <si>
+    <t>fèn</t>
+  </si>
+  <si>
+    <t>work hard</t>
+  </si>
+  <si>
+    <t>战</t>
+  </si>
+  <si>
+    <t>zhàn</t>
+  </si>
+  <si>
+    <t>fight, war</t>
+  </si>
+  <si>
+    <t>宵</t>
+  </si>
+  <si>
+    <t>xiāo</t>
+  </si>
+  <si>
+    <t>night</t>
+  </si>
+  <si>
+    <t>至</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zhì	</t>
+  </si>
+  <si>
+    <t>待</t>
+  </si>
+  <si>
+    <t>stay, treat</t>
+  </si>
+  <si>
+    <t>谁</t>
+  </si>
+  <si>
+    <t>shéi</t>
+  </si>
+  <si>
+    <t>who</t>
+  </si>
+  <si>
+    <t>陌</t>
+  </si>
+  <si>
+    <t>mò</t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
+    <t>陌生人</t>
+  </si>
+  <si>
+    <t>mòshēngrén</t>
+  </si>
+  <si>
+    <t>stranger</t>
+  </si>
+  <si>
+    <t>皮尔斯霍桑</t>
+  </si>
+  <si>
+    <t>piěrsīhuòsāng</t>
+  </si>
+  <si>
+    <t>Pierce Hawthorne (proper)</t>
+  </si>
+  <si>
+    <t>纸</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>巾</t>
+  </si>
+  <si>
+    <t>jīn</t>
+  </si>
+  <si>
+    <t>towel</t>
+  </si>
+  <si>
+    <t>奖</t>
+  </si>
+  <si>
+    <t>prize</t>
+  </si>
+  <si>
+    <t>祝酒</t>
+  </si>
+  <si>
+    <t>zhùjiǔ</t>
+  </si>
+  <si>
+    <t>toast</t>
+  </si>
+  <si>
+    <t>高手</t>
+  </si>
+  <si>
+    <t>gāoshǒu</t>
+  </si>
+  <si>
+    <t>master</t>
+  </si>
+  <si>
+    <t>引</t>
+  </si>
+  <si>
+    <t>yǐn</t>
+  </si>
+  <si>
+    <t>引荐</t>
+  </si>
+  <si>
+    <t>yǐnjiàn</t>
+  </si>
+  <si>
+    <t>recommend, introduce</t>
+  </si>
+  <si>
+    <t>莫属</t>
+  </si>
+  <si>
+    <t>mòshǔ</t>
+  </si>
+  <si>
+    <t>definitely</t>
+  </si>
+  <si>
+    <t>仔</t>
+  </si>
+  <si>
+    <t>zǐ</t>
+  </si>
+  <si>
+    <t>young, ~boy/son</t>
+  </si>
+  <si>
+    <t>适</t>
+  </si>
+  <si>
+    <t>suitable</t>
+  </si>
+  <si>
+    <t>冒险</t>
+  </si>
+  <si>
+    <t>màoxiǎn</t>
+  </si>
+  <si>
+    <t>adventure</t>
+  </si>
+  <si>
+    <t>特洛伊</t>
+  </si>
+  <si>
+    <t>tèluòyī</t>
+  </si>
+  <si>
+    <t>Troy</t>
+  </si>
+  <si>
+    <t>安妮</t>
+  </si>
+  <si>
+    <t>ānnī</t>
+  </si>
+  <si>
+    <t>Annie/Anne</t>
+  </si>
+  <si>
+    <t>不可方</t>
+  </si>
+  <si>
+    <t>bǔkěfāng</t>
+  </si>
+  <si>
+    <t>extremely</t>
+  </si>
+  <si>
+    <t>美艳</t>
+  </si>
+  <si>
+    <t>měiyàn</t>
+  </si>
+  <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>物</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wù	</t>
+  </si>
+  <si>
+    <t>object, thing</t>
+  </si>
+  <si>
+    <t>雪瑞</t>
+  </si>
+  <si>
+    <t>xuěruì</t>
+  </si>
+  <si>
+    <t>Shirley</t>
+  </si>
+  <si>
+    <t>近</t>
+  </si>
+  <si>
+    <t>jìn</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>意外</t>
+  </si>
+  <si>
+    <t>yìwài</t>
+  </si>
+  <si>
+    <t>accident</t>
+  </si>
+  <si>
+    <t>参（加）</t>
+  </si>
+  <si>
+    <t>participate</t>
+  </si>
+  <si>
+    <t>未</t>
+  </si>
+  <si>
+    <t>not yet</t>
+  </si>
+  <si>
+    <t>矛</t>
+  </si>
+  <si>
+    <t>máo</t>
+  </si>
+  <si>
+    <t>spear</t>
+  </si>
+  <si>
+    <t>盾</t>
+  </si>
+  <si>
+    <t>dùn</t>
+  </si>
+  <si>
+    <t>shield</t>
+  </si>
+  <si>
+    <t>矛盾</t>
+  </si>
+  <si>
+    <t>máodùn</t>
+  </si>
+  <si>
+    <t>contradiction, conflict</t>
+  </si>
+  <si>
+    <t>散</t>
+  </si>
+  <si>
+    <t>sàn</t>
+  </si>
+  <si>
+    <t>scattered</t>
+  </si>
+  <si>
+    <t>解散</t>
+  </si>
+  <si>
+    <t>jiěsàn</t>
+  </si>
+  <si>
+    <t>disband</t>
+  </si>
+  <si>
+    <t>疑</t>
+  </si>
+  <si>
+    <t>yí</t>
+  </si>
+  <si>
+    <t>suspect</t>
+  </si>
+  <si>
+    <t>虑</t>
+  </si>
+  <si>
+    <t>consider</t>
+  </si>
+  <si>
+    <t>疑虑</t>
+  </si>
+  <si>
+    <t>yílǜ</t>
+  </si>
+  <si>
+    <t>doubt, concern</t>
+  </si>
+  <si>
+    <t>甜心</t>
+  </si>
+  <si>
+    <t>tiánxīn</t>
+  </si>
+  <si>
+    <t>sweetheart</t>
+  </si>
+  <si>
+    <t>背</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>南</t>
+  </si>
+  <si>
+    <t>South</t>
+  </si>
+  <si>
+    <t>瓜</t>
+  </si>
+  <si>
+    <t>guā</t>
+  </si>
+  <si>
+    <t>melon</t>
+  </si>
+  <si>
+    <t>南瓜</t>
+  </si>
+  <si>
+    <t>pumpkin</t>
+  </si>
+  <si>
+    <t>省</t>
+  </si>
+  <si>
+    <t>shěng</t>
+  </si>
+  <si>
+    <t>province, save, leave out</t>
+  </si>
+  <si>
+    <t>轻</t>
+  </si>
+  <si>
+    <t>light, soft</t>
+  </si>
+  <si>
+    <t>年轻</t>
+  </si>
+  <si>
+    <t>niánqīng</t>
+  </si>
+  <si>
+    <t>代</t>
+  </si>
+  <si>
+    <t>generation</t>
+  </si>
+  <si>
+    <t>表</t>
+  </si>
+  <si>
+    <t>biǎo</t>
+  </si>
+  <si>
+    <t>surface, list</t>
+  </si>
+  <si>
+    <t>代表</t>
+  </si>
+  <si>
+    <t>dàibiǎo</t>
+  </si>
+  <si>
+    <t>represent</t>
+  </si>
+  <si>
+    <t>低</t>
+  </si>
+  <si>
+    <t>dī</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>低人一等</t>
+  </si>
+  <si>
+    <t>inferior</t>
+  </si>
+  <si>
+    <t>话说回来</t>
+  </si>
+  <si>
+    <t>huàshuō huílái</t>
+  </si>
+  <si>
+    <t>anyway</t>
+  </si>
+  <si>
+    <t>纪</t>
+  </si>
+  <si>
+    <t>discipline, record</t>
+  </si>
+  <si>
+    <t>年纪</t>
+  </si>
+  <si>
+    <t>niánjì</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>示</t>
+  </si>
+  <si>
+    <t>shows</t>
+  </si>
+  <si>
+    <t>误</t>
+  </si>
+  <si>
+    <t>wù</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>决</t>
+  </si>
+  <si>
+    <t>decide</t>
+  </si>
+  <si>
+    <t>决定</t>
+  </si>
+  <si>
+    <t>decision</t>
+  </si>
+  <si>
+    <t>怜惜</t>
+  </si>
+  <si>
+    <t>liánxī</t>
+  </si>
+  <si>
+    <t>pity</t>
+  </si>
+  <si>
+    <t>尊重</t>
+  </si>
+  <si>
+    <t>zūnzhòng</t>
+  </si>
+  <si>
+    <t>被</t>
+  </si>
+  <si>
+    <t>cover, blanket</t>
+  </si>
+  <si>
+    <t>脑勺</t>
+  </si>
+  <si>
+    <t>nǎosháo</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>摁</t>
+  </si>
+  <si>
+    <t>èn</t>
+  </si>
+  <si>
+    <t>press</t>
+  </si>
+  <si>
+    <t>唱</t>
+  </si>
+  <si>
+    <t>chàng</t>
+  </si>
+  <si>
+    <t>sing</t>
+  </si>
+  <si>
+    <t>点唱机</t>
+  </si>
+  <si>
+    <t>diǎn chàngjī</t>
+  </si>
+  <si>
+    <t>jukebox</t>
+  </si>
+  <si>
+    <t>自动</t>
+  </si>
+  <si>
+    <t>zìdòng</t>
+  </si>
+  <si>
+    <t>automatic</t>
+  </si>
+  <si>
+    <t>讨</t>
+  </si>
+  <si>
+    <t>tǎo</t>
+  </si>
+  <si>
+    <t>discuss</t>
+  </si>
+  <si>
+    <t>诡异</t>
+  </si>
+  <si>
+    <t>guǐyì</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>动作</t>
+  </si>
+  <si>
+    <t>dòngzuò</t>
+  </si>
+  <si>
+    <t>behavior, movement</t>
+  </si>
+  <si>
+    <t>业</t>
+  </si>
+  <si>
+    <t>yè</t>
+  </si>
+  <si>
+    <t>industry</t>
+  </si>
+  <si>
+    <t>求</t>
+  </si>
+  <si>
+    <t>qiú</t>
+  </si>
+  <si>
+    <t>beg</t>
+  </si>
+  <si>
+    <t>求爱</t>
+  </si>
+  <si>
+    <t>qiú'ài</t>
+  </si>
+  <si>
+    <t>court, romance</t>
+  </si>
+  <si>
+    <t>感</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>性骚</t>
+  </si>
+  <si>
+    <t>xìngsāo</t>
+  </si>
+  <si>
+    <t>sexy</t>
+  </si>
+  <si>
+    <t>扰</t>
+  </si>
+  <si>
+    <t>rǎo</t>
+  </si>
+  <si>
+    <t>disturb</t>
+  </si>
+  <si>
+    <t>呀</t>
+  </si>
+  <si>
+    <t>ya</t>
+  </si>
+  <si>
+    <t>ah</t>
+  </si>
+  <si>
+    <t>通</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tōng	</t>
+  </si>
+  <si>
+    <t>pass, logical, maybe repeat</t>
+  </si>
+  <si>
+    <t>趣</t>
+  </si>
+  <si>
+    <t>qù</t>
+  </si>
+  <si>
+    <t>界</t>
+  </si>
+  <si>
+    <t>boundary, world</t>
+  </si>
+  <si>
+    <t>世界</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>领袖</t>
+  </si>
+  <si>
+    <t>lǐngxiù</t>
+  </si>
+  <si>
+    <t>leader</t>
+  </si>
+  <si>
+    <t>杰出</t>
+  </si>
+  <si>
+    <t>jiéchū</t>
+  </si>
+  <si>
+    <t>outstanding</t>
+  </si>
+  <si>
+    <t>香</t>
+  </si>
+  <si>
+    <t>fragrant, flower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">吃香	</t>
+  </si>
+  <si>
+    <t>popular</t>
+  </si>
+  <si>
+    <t>宴</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yàn	</t>
+  </si>
+  <si>
+    <t>feast</t>
+  </si>
+  <si>
+    <t>妞</t>
+  </si>
+  <si>
+    <t xml:space="preserve">niū	</t>
+  </si>
+  <si>
+    <t>屁</t>
+  </si>
+  <si>
+    <t>pì</t>
+  </si>
+  <si>
+    <t>fart(?)</t>
+  </si>
+  <si>
+    <t>建议</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jiànyì	</t>
+  </si>
+  <si>
+    <t>tips, suggestion</t>
+  </si>
+  <si>
+    <t>四分卫</t>
+  </si>
+  <si>
+    <t>sì fēn wèi</t>
+  </si>
+  <si>
+    <t>quarterback</t>
+  </si>
+  <si>
+    <t>毕业</t>
+  </si>
+  <si>
+    <t>bìyè</t>
+  </si>
+  <si>
+    <t>graduate</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chinese </t>
   </si>
   <si>
@@ -3273,15 +4532,6 @@
     <t>static</t>
   </si>
   <si>
-    <t>低</t>
-  </si>
-  <si>
-    <t>dī</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>脚</t>
   </si>
   <si>
@@ -3327,13 +4577,7 @@
     <t>can pass</t>
   </si>
   <si>
-    <t>边</t>
-  </si>
-  <si>
     <t xml:space="preserve">biān	</t>
-  </si>
-  <si>
-    <t>side</t>
   </si>
   <si>
     <t>配</t>
@@ -3442,11 +4686,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -3462,10 +4709,6 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -7514,6 +8757,1665 @@
         <v>1030</v>
       </c>
     </row>
+    <row r="324">
+      <c r="A324" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E375" s="1" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D381" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E381" s="1" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D426" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="E426" s="1" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C431" s="1" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C433" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D433" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E433" s="1" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C434" s="1" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C436" s="1" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C438" s="1" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C439" s="1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D439" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E439" s="1" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C440" s="1" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C442" s="1" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C443" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C445" s="1" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C446" s="1" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C447" s="1" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C448" s="1" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C449" s="1" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C450" s="1" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C451" s="1" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C452" s="1" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C453" s="1" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C454" s="1" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="C455" s="1" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C456" s="1" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C457" s="1" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C458" s="1" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C459" s="1" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C460" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C461" s="1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D461" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E461" s="1" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C462" s="1" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C463" s="1" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="C464" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D464" s="1" t="s">
+        <v>1432</v>
+      </c>
+      <c r="E464" s="1" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C465" s="1" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C466" s="1" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C467" s="1" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C468" s="1" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C469" s="1" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C470" s="1" t="s">
+        <v>1450</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -7531,197 +10433,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1451</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>1452</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1033</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="2">
@@ -7732,195 +10453,195 @@
         <v>858</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1034</v>
+        <v>1454</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1035</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>1036</v>
+        <v>1456</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1037</v>
+        <v>1457</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1038</v>
+        <v>1458</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1039</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>1040</v>
+        <v>1460</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1041</v>
+        <v>1461</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1042</v>
+        <v>1462</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1039</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>1043</v>
+        <v>1463</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1044</v>
+        <v>1464</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1045</v>
+        <v>1465</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1035</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>1046</v>
+        <v>1466</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1047</v>
+        <v>1467</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1048</v>
+        <v>1468</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1039</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>1049</v>
+        <v>1469</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1050</v>
+        <v>1470</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1051</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>1052</v>
+        <v>1472</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1053</v>
+        <v>1473</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1054</v>
+        <v>1474</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1039</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>1055</v>
+        <v>1475</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1056</v>
+        <v>1476</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1057</v>
+        <v>1477</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1039</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>1058</v>
+        <v>1478</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1059</v>
+        <v>1479</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1060</v>
+        <v>1480</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1039</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>1061</v>
+        <v>1481</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1062</v>
+        <v>1482</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1063</v>
+        <v>1483</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1039</v>
+        <v>1459</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>1064</v>
+        <v>1484</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>1065</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>1066</v>
+        <v>1486</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1067</v>
+        <v>1487</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1068</v>
+        <v>1488</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1039</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>1069</v>
+        <v>1489</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1070</v>
+        <v>1490</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1071</v>
+        <v>1491</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1039</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>1072</v>
+        <v>1492</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1073</v>
+        <v>1493</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1074</v>
+        <v>1494</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1039</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>1075</v>
+        <v>1495</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1076</v>
+        <v>1496</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1077</v>
+        <v>1497</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1078</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="16">
@@ -7931,94 +10652,94 @@
         <v>628</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1079</v>
+        <v>1499</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1035</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>1080</v>
+        <v>1500</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1081</v>
+        <v>1501</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1082</v>
+        <v>1502</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1039</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>1083</v>
+        <v>1503</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1084</v>
+        <v>1504</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1085</v>
+        <v>1505</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1039</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>1086</v>
+        <v>1342</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1087</v>
+        <v>1343</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1088</v>
+        <v>1344</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1039</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>1089</v>
+        <v>1506</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1090</v>
+        <v>1507</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1091</v>
+        <v>1508</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1039</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>1092</v>
+        <v>1509</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1093</v>
+        <v>1510</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1094</v>
+        <v>1511</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1039</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>1095</v>
+        <v>1512</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1096</v>
+        <v>1513</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1097</v>
+        <v>1514</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1039</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="23">
@@ -8032,158 +10753,158 @@
         <v>1000</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1035</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>1098</v>
+        <v>1515</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1099</v>
+        <v>1516</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1100</v>
+        <v>1517</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1039</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>1101</v>
+        <v>1518</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1102</v>
+        <v>1519</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1103</v>
+        <v>1520</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1035</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>1104</v>
+        <v>1177</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1105</v>
+        <v>1521</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1106</v>
+        <v>1179</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1035</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>1107</v>
+        <v>1522</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1108</v>
+        <v>1523</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1109</v>
+        <v>1524</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1039</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>1110</v>
+        <v>1525</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1111</v>
+        <v>1526</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1112</v>
+        <v>1527</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1039</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>1113</v>
+        <v>1528</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1114</v>
+        <v>1529</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1115</v>
+        <v>1530</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>1039</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>1116</v>
+        <v>1531</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1117</v>
+        <v>1532</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1118</v>
+        <v>1533</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1039</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>1119</v>
+        <v>1534</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1120</v>
+        <v>1535</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1121</v>
+        <v>1536</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>1039</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>1122</v>
+        <v>1537</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1123</v>
+        <v>1538</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1124</v>
+        <v>1539</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1125</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>1126</v>
+        <v>1541</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1127</v>
+        <v>1542</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1128</v>
+        <v>1543</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>1039</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>1129</v>
+        <v>1544</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1130</v>
+        <v>1545</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1131</v>
+        <v>1546</v>
       </c>
     </row>
   </sheetData>

--- a/static/Chinese Vocab Community.xlsx
+++ b/static/Chinese Vocab Community.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="1547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2121" uniqueCount="1975">
   <si>
     <t>Characters</t>
   </si>
@@ -2237,7 +2237,7 @@
     <t>情况</t>
   </si>
   <si>
-    <t>qíngjuàng</t>
+    <t>qíngkuàng</t>
   </si>
   <si>
     <t>situation</t>
@@ -4367,6 +4367,1311 @@
     <t>graduate</t>
   </si>
   <si>
+    <t>舞</t>
+  </si>
+  <si>
+    <t>wǔ</t>
+  </si>
+  <si>
+    <t>dance</t>
+  </si>
+  <si>
+    <t>国王</t>
+  </si>
+  <si>
+    <t>guówáng</t>
+  </si>
+  <si>
+    <t>king</t>
+  </si>
+  <si>
+    <t>河</t>
+  </si>
+  <si>
+    <t>river</t>
+  </si>
+  <si>
+    <t>畔</t>
+  </si>
+  <si>
+    <t>pàn</t>
+  </si>
+  <si>
+    <t>beside</t>
+  </si>
+  <si>
+    <t>高中</t>
+  </si>
+  <si>
+    <t>gāozhōng</t>
+  </si>
+  <si>
+    <t>highschool</t>
+  </si>
+  <si>
+    <t>穿</t>
+  </si>
+  <si>
+    <t>chuān</t>
+  </si>
+  <si>
+    <t>wear</t>
+  </si>
+  <si>
+    <t>愚蠢</t>
+  </si>
+  <si>
+    <t>yúchǔn</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>母</t>
+  </si>
+  <si>
+    <t>mǔ</t>
+  </si>
+  <si>
+    <t>字母</t>
+  </si>
+  <si>
+    <t>zimǔ</t>
+  </si>
+  <si>
+    <t>letters</t>
+  </si>
+  <si>
+    <t>药</t>
+  </si>
+  <si>
+    <t>yào</t>
+  </si>
+  <si>
+    <t>drugs, medicine</t>
+  </si>
+  <si>
+    <t>嗑药（嗑）</t>
+  </si>
+  <si>
+    <t>kēyàokē</t>
+  </si>
+  <si>
+    <t>take drugs</t>
+  </si>
+  <si>
+    <t>药丸</t>
+  </si>
+  <si>
+    <t>yàowán</t>
+  </si>
+  <si>
+    <t>pill</t>
+  </si>
+  <si>
+    <t>退</t>
+  </si>
+  <si>
+    <t>tuì</t>
+  </si>
+  <si>
+    <t>retreat, withdraw</t>
+  </si>
+  <si>
+    <t>远动</t>
+  </si>
+  <si>
+    <t>yuǎndòng</t>
+  </si>
+  <si>
+    <t>sports</t>
+  </si>
+  <si>
+    <t>蛋</t>
+  </si>
+  <si>
+    <t>dàn</t>
+  </si>
+  <si>
+    <t>egg</t>
+  </si>
+  <si>
+    <t>傻</t>
+  </si>
+  <si>
+    <t>shǎ</t>
+  </si>
+  <si>
+    <t>傻蛋</t>
+  </si>
+  <si>
+    <t>shǎdàn</t>
+  </si>
+  <si>
+    <t>idiot (egghead)</t>
+  </si>
+  <si>
+    <t>倒</t>
+  </si>
+  <si>
+    <t>dào</t>
+  </si>
+  <si>
+    <t>fall</t>
+  </si>
+  <si>
+    <t>立</t>
+  </si>
+  <si>
+    <t>lì</t>
+  </si>
+  <si>
+    <t>stand</t>
+  </si>
+  <si>
+    <t>倒立</t>
+  </si>
+  <si>
+    <t>dàolì</t>
+  </si>
+  <si>
+    <t>headstand</t>
+  </si>
+  <si>
+    <t>啤酒</t>
+  </si>
+  <si>
+    <t>píjiǔ</t>
+  </si>
+  <si>
+    <t>beer</t>
+  </si>
+  <si>
+    <t>桶</t>
+  </si>
+  <si>
+    <t>tǒng</t>
+  </si>
+  <si>
+    <t>bucket, barrel</t>
+  </si>
+  <si>
+    <t>肩膀</t>
+  </si>
+  <si>
+    <t>jiānbǎng</t>
+  </si>
+  <si>
+    <t>shoulders</t>
+  </si>
+  <si>
+    <t>脱臼</t>
+  </si>
+  <si>
+    <t>tuōjiù</t>
+  </si>
+  <si>
+    <t>dislocate</t>
+  </si>
+  <si>
+    <t>育</t>
+  </si>
+  <si>
+    <t>education</t>
+  </si>
+  <si>
+    <t>金</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>汤</t>
+  </si>
+  <si>
+    <t>tāng</t>
+  </si>
+  <si>
+    <t>soup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">泡汤	</t>
+  </si>
+  <si>
+    <t>pàotāng</t>
+  </si>
+  <si>
+    <t>hotsprings, bathe</t>
+  </si>
+  <si>
+    <t>空翻</t>
+  </si>
+  <si>
+    <t>kōngfān</t>
+  </si>
+  <si>
+    <t>flip</t>
+  </si>
+  <si>
+    <t>懂</t>
+  </si>
+  <si>
+    <t>dǒng</t>
+  </si>
+  <si>
+    <t>understand</t>
+  </si>
+  <si>
+    <t>传奇</t>
+  </si>
+  <si>
+    <t>chuánqí</t>
+  </si>
+  <si>
+    <t>legend</t>
+  </si>
+  <si>
+    <t>节</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>圣诞</t>
+  </si>
+  <si>
+    <t>shèngdàn</t>
+  </si>
+  <si>
+    <t>Christmas</t>
+  </si>
+  <si>
+    <t>礼</t>
+  </si>
+  <si>
+    <t>present</t>
+  </si>
+  <si>
+    <t>辉煌</t>
+  </si>
+  <si>
+    <t>huīhuáng</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>台</t>
+  </si>
+  <si>
+    <t>tái</t>
+  </si>
+  <si>
+    <t>tower, station</t>
+  </si>
+  <si>
+    <t>台湾</t>
+  </si>
+  <si>
+    <t>táiwān</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>台词</t>
+  </si>
+  <si>
+    <t>táicí</t>
+  </si>
+  <si>
+    <t>quotes</t>
+  </si>
+  <si>
+    <t>丢</t>
+  </si>
+  <si>
+    <t>diū</t>
+  </si>
+  <si>
+    <t>leave</t>
+  </si>
+  <si>
+    <t>角</t>
+  </si>
+  <si>
+    <t>jiǎo</t>
+  </si>
+  <si>
+    <t>angle, actor, etc</t>
+  </si>
+  <si>
+    <t>落</t>
+  </si>
+  <si>
+    <t>luò</t>
+  </si>
+  <si>
+    <t>角落</t>
+  </si>
+  <si>
+    <t>jiǎoluò</t>
+  </si>
+  <si>
+    <t>corner</t>
+  </si>
+  <si>
+    <t>身</t>
+  </si>
+  <si>
+    <t>shēn</t>
+  </si>
+  <si>
+    <t>停</t>
+  </si>
+  <si>
+    <t>tíng</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>停车</t>
+  </si>
+  <si>
+    <t>tíngchē</t>
+  </si>
+  <si>
+    <t>parking</t>
+  </si>
+  <si>
+    <t>声</t>
+  </si>
+  <si>
+    <t>shēng</t>
+  </si>
+  <si>
+    <t>voice</t>
+  </si>
+  <si>
+    <t>伪</t>
+  </si>
+  <si>
+    <t>wěi</t>
+  </si>
+  <si>
+    <t>psuedo, forget</t>
+  </si>
+  <si>
+    <t>伪装</t>
+  </si>
+  <si>
+    <t>wěizhuāng</t>
+  </si>
+  <si>
+    <t>disguise</t>
+  </si>
+  <si>
+    <t>衣装</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yīzhuāng	</t>
+  </si>
+  <si>
+    <t>clothes</t>
+  </si>
+  <si>
+    <t>尽</t>
+  </si>
+  <si>
+    <t>jǐn</t>
+  </si>
+  <si>
+    <t>all, exhaust</t>
+  </si>
+  <si>
+    <t>办法</t>
+  </si>
+  <si>
+    <t>bànfǎ</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>程</t>
+  </si>
+  <si>
+    <t>procedure, journey</t>
+  </si>
+  <si>
+    <t>老兄</t>
+  </si>
+  <si>
+    <t>lǎoxiōng</t>
+  </si>
+  <si>
+    <t>dude</t>
+  </si>
+  <si>
+    <t>贪婪</t>
+  </si>
+  <si>
+    <t>tānlán</t>
+  </si>
+  <si>
+    <t>greedy</t>
+  </si>
+  <si>
+    <t>处</t>
+  </si>
+  <si>
+    <t>chù</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>好处</t>
+  </si>
+  <si>
+    <t>hǎochù</t>
+  </si>
+  <si>
+    <t>benefit</t>
+  </si>
+  <si>
+    <t>欠</t>
+  </si>
+  <si>
+    <t>qiàn</t>
+  </si>
+  <si>
+    <t>owe</t>
+  </si>
+  <si>
+    <t>人情</t>
+  </si>
+  <si>
+    <t>rénqíng</t>
+  </si>
+  <si>
+    <t>favor</t>
+  </si>
+  <si>
+    <t>还清</t>
+  </si>
+  <si>
+    <t>huánqīng</t>
+  </si>
+  <si>
+    <t>pay off</t>
+  </si>
+  <si>
+    <t>满足</t>
+  </si>
+  <si>
+    <t>mǎnzú</t>
+  </si>
+  <si>
+    <t>satisfy</t>
+  </si>
+  <si>
+    <t>足</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>扯</t>
+  </si>
+  <si>
+    <t>chě</t>
+  </si>
+  <si>
+    <t>pull, gossip</t>
+  </si>
+  <si>
+    <t>平</t>
+  </si>
+  <si>
+    <t>flat</t>
+  </si>
+  <si>
+    <t>扯平</t>
+  </si>
+  <si>
+    <t>chěpíng</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>公平</t>
+  </si>
+  <si>
+    <t>gōngpíng</t>
+  </si>
+  <si>
+    <t>fair</t>
+  </si>
+  <si>
+    <t>捷径</t>
+  </si>
+  <si>
+    <t>jiéjìng</t>
+  </si>
+  <si>
+    <t>shortcut</t>
+  </si>
+  <si>
+    <t>预</t>
+  </si>
+  <si>
+    <t>pre</t>
+  </si>
+  <si>
+    <t>付款</t>
+  </si>
+  <si>
+    <t>fùkuǎn</t>
+  </si>
+  <si>
+    <t>payment</t>
+  </si>
+  <si>
+    <t>内</t>
+  </si>
+  <si>
+    <t>nèi</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>内置</t>
+  </si>
+  <si>
+    <t>nèizhì</t>
+  </si>
+  <si>
+    <t>built in</t>
+  </si>
+  <si>
+    <t>加热·</t>
+  </si>
+  <si>
+    <t>jiārè</t>
+  </si>
+  <si>
+    <t>heating</t>
+  </si>
+  <si>
+    <t>设备</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shèbèi	</t>
+  </si>
+  <si>
+    <t>真皮</t>
+  </si>
+  <si>
+    <t>zhēnpí</t>
+  </si>
+  <si>
+    <t>leather</t>
+  </si>
+  <si>
+    <t>座</t>
+  </si>
+  <si>
+    <t>zuò</t>
+  </si>
+  <si>
+    <t>seat</t>
+  </si>
+  <si>
+    <t>椅</t>
+  </si>
+  <si>
+    <t>yǐ</t>
+  </si>
+  <si>
+    <t>chair</t>
+  </si>
+  <si>
+    <t>痒</t>
+  </si>
+  <si>
+    <t>yǎng</t>
+  </si>
+  <si>
+    <t>itch</t>
+  </si>
+  <si>
+    <t>不痛不痒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bùtòngbùyǎng	</t>
+  </si>
+  <si>
+    <t>superficial (harmless?)</t>
+  </si>
+  <si>
+    <t>唬</t>
+  </si>
+  <si>
+    <t>hǔ</t>
+  </si>
+  <si>
+    <t>fool, bluff</t>
+  </si>
+  <si>
+    <t>伎俩</t>
+  </si>
+  <si>
+    <t>jìliǎng</t>
+  </si>
+  <si>
+    <t>trick</t>
+  </si>
+  <si>
+    <t>殖民地</t>
+  </si>
+  <si>
+    <t>zhímíndì</t>
+  </si>
+  <si>
+    <t>colony</t>
+  </si>
+  <si>
+    <t>原因</t>
+  </si>
+  <si>
+    <t>yuányīn</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>佬</t>
+  </si>
+  <si>
+    <t>lǎo</t>
+  </si>
+  <si>
+    <t>guy</t>
+  </si>
+  <si>
+    <t>失</t>
+  </si>
+  <si>
+    <t>shī</t>
+  </si>
+  <si>
+    <t>取消</t>
+  </si>
+  <si>
+    <t>qǔxiāo</t>
+  </si>
+  <si>
+    <t>cancel</t>
+  </si>
+  <si>
+    <t>听证</t>
+  </si>
+  <si>
+    <t>tīngzhèng</t>
+  </si>
+  <si>
+    <t>hearing</t>
+  </si>
+  <si>
+    <t>愉</t>
+  </si>
+  <si>
+    <t>yú</t>
+  </si>
+  <si>
+    <t>delight</t>
+  </si>
+  <si>
+    <t>辆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liàng	</t>
+  </si>
+  <si>
+    <t>MW for vehicles</t>
+  </si>
+  <si>
+    <t>环</t>
+  </si>
+  <si>
+    <t>huán</t>
+  </si>
+  <si>
+    <t>ring</t>
+  </si>
+  <si>
+    <t>环保</t>
+  </si>
+  <si>
+    <t>huánbǎo</t>
+  </si>
+  <si>
+    <t>environmentally friendly</t>
+  </si>
+  <si>
+    <t>树叶</t>
+  </si>
+  <si>
+    <t>shùyè</t>
+  </si>
+  <si>
+    <t>leaves</t>
+  </si>
+  <si>
+    <t>擦</t>
+  </si>
+  <si>
+    <t>cā</t>
+  </si>
+  <si>
+    <t>wipe</t>
+  </si>
+  <si>
+    <t>屁股</t>
+  </si>
+  <si>
+    <t>pìgu</t>
+  </si>
+  <si>
+    <t>ass</t>
+  </si>
+  <si>
+    <t>烂</t>
+  </si>
+  <si>
+    <t>làn</t>
+  </si>
+  <si>
+    <t>高尔夫·</t>
+  </si>
+  <si>
+    <t>gāoěrfū</t>
+  </si>
+  <si>
+    <t>golf</t>
+  </si>
+  <si>
+    <t>里面</t>
+  </si>
+  <si>
+    <t>lǐmiàn</t>
+  </si>
+  <si>
+    <t>inside</t>
+  </si>
+  <si>
+    <t>泰</t>
+  </si>
+  <si>
+    <t>tài</t>
+  </si>
+  <si>
+    <t>Thai</t>
+  </si>
+  <si>
+    <t>料</t>
+  </si>
+  <si>
+    <t>liào</t>
+  </si>
+  <si>
+    <t>feed</t>
+  </si>
+  <si>
+    <t>料理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liàolǐ	</t>
+  </si>
+  <si>
+    <t>cuisine</t>
+  </si>
+  <si>
+    <t>计策</t>
+  </si>
+  <si>
+    <t>jìcè</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>煽动</t>
+  </si>
+  <si>
+    <t>shāndòng</t>
+  </si>
+  <si>
+    <t>incite</t>
+  </si>
+  <si>
+    <t>群</t>
+  </si>
+  <si>
+    <t>qún</t>
+  </si>
+  <si>
+    <t>昂</t>
+  </si>
+  <si>
+    <t>áng</t>
+  </si>
+  <si>
+    <t>high (elevation, not state)</t>
+  </si>
+  <si>
+    <t>激</t>
+  </si>
+  <si>
+    <t>stimulate, excite</t>
+  </si>
+  <si>
+    <t>乱成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">luànchéng	</t>
+  </si>
+  <si>
+    <t>chaos</t>
+  </si>
+  <si>
+    <t>一片</t>
+  </si>
+  <si>
+    <t>yīpiàn</t>
+  </si>
+  <si>
+    <t>one piece</t>
+  </si>
+  <si>
+    <t>机会</t>
+  </si>
+  <si>
+    <t>jīhuì</t>
+  </si>
+  <si>
+    <t>chance</t>
+  </si>
+  <si>
+    <t>折</t>
+  </si>
+  <si>
+    <t>zhé</t>
+  </si>
+  <si>
+    <t>fold, break</t>
+  </si>
+  <si>
+    <t>折腾</t>
+  </si>
+  <si>
+    <t>zhéteng</t>
+  </si>
+  <si>
+    <t>toss</t>
+  </si>
+  <si>
+    <t>恭维</t>
+  </si>
+  <si>
+    <t>gōngwéi</t>
+  </si>
+  <si>
+    <t>compliment</t>
+  </si>
+  <si>
+    <t>荒谬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">huāngmiù	</t>
+  </si>
+  <si>
+    <t>absurd</t>
+  </si>
+  <si>
+    <t>至极</t>
+  </si>
+  <si>
+    <t>zhìjí</t>
+  </si>
+  <si>
+    <t>像样</t>
+  </si>
+  <si>
+    <t>xiàngyàng</t>
+  </si>
+  <si>
+    <t>decent</t>
+  </si>
+  <si>
+    <t>收拾</t>
+  </si>
+  <si>
+    <t>shōushí</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>进</t>
+  </si>
+  <si>
+    <t>enter</t>
+  </si>
+  <si>
+    <t>烂摊</t>
+  </si>
+  <si>
+    <t>làntān</t>
+  </si>
+  <si>
+    <t>mess</t>
+  </si>
+  <si>
+    <t>屋</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wū	</t>
+  </si>
+  <si>
+    <t>总统</t>
+  </si>
+  <si>
+    <t>zǒngtǒng</t>
+  </si>
+  <si>
+    <t>president</t>
+  </si>
+  <si>
+    <t>奥巴</t>
+  </si>
+  <si>
+    <t>àobā</t>
+  </si>
+  <si>
+    <t>Obama</t>
+  </si>
+  <si>
+    <t>搞定</t>
+  </si>
+  <si>
+    <t>gǎodìng</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>忘记</t>
+  </si>
+  <si>
+    <t>wàngjì</t>
+  </si>
+  <si>
+    <t>forget</t>
+  </si>
+  <si>
+    <t>肤</t>
+  </si>
+  <si>
+    <t>fū</t>
+  </si>
+  <si>
+    <t>skin</t>
+  </si>
+  <si>
+    <t>肤浅</t>
+  </si>
+  <si>
+    <t>fūqiǎn</t>
+  </si>
+  <si>
+    <t>shallow</t>
+  </si>
+  <si>
+    <t>渣</t>
+  </si>
+  <si>
+    <t>zhā</t>
+  </si>
+  <si>
+    <t>jag</t>
+  </si>
+  <si>
+    <t>乖（乖）</t>
+  </si>
+  <si>
+    <t>guāi</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>各</t>
+  </si>
+  <si>
+    <t>gè</t>
+  </si>
+  <si>
+    <t>each</t>
+  </si>
+  <si>
+    <t>各位</t>
+  </si>
+  <si>
+    <t>gèwèi</t>
+  </si>
+  <si>
+    <t>喊</t>
+  </si>
+  <si>
+    <t>hǎn</t>
+  </si>
+  <si>
+    <t>call</t>
+  </si>
+  <si>
+    <t>语气</t>
+  </si>
+  <si>
+    <t>yǔqì</t>
+  </si>
+  <si>
+    <t>tone</t>
+  </si>
+  <si>
+    <t>动物</t>
+  </si>
+  <si>
+    <t>dòngwù</t>
+  </si>
+  <si>
+    <t>animal</t>
+  </si>
+  <si>
+    <t>区别</t>
+  </si>
+  <si>
+    <t>qūbié</t>
+  </si>
+  <si>
+    <t>differene</t>
+  </si>
+  <si>
+    <t>脚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jiǎo	</t>
+  </si>
+  <si>
+    <t>脚丫</t>
+  </si>
+  <si>
+    <t>jiǎoyā</t>
+  </si>
+  <si>
+    <t>feet</t>
+  </si>
+  <si>
+    <t>熊</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xióng	</t>
+  </si>
+  <si>
+    <t>bear</t>
+  </si>
+  <si>
+    <t>掌</t>
+  </si>
+  <si>
+    <t>zhǎng</t>
+  </si>
+  <si>
+    <t>palms</t>
+  </si>
+  <si>
+    <t>地球</t>
+  </si>
+  <si>
+    <t>dìqiú</t>
+  </si>
+  <si>
+    <t>Earth</t>
+  </si>
+  <si>
+    <t>观看</t>
+  </si>
+  <si>
+    <t>guānkàn</t>
+  </si>
+  <si>
+    <t>observe</t>
+  </si>
+  <si>
+    <t>探索</t>
+  </si>
+  <si>
+    <t>tànsuǒ</t>
+  </si>
+  <si>
+    <t>频道</t>
+  </si>
+  <si>
+    <t>píndào</t>
+  </si>
+  <si>
+    <t>channels</t>
+  </si>
+  <si>
+    <t>鲨鱼</t>
+  </si>
+  <si>
+    <t>shāyú</t>
+  </si>
+  <si>
+    <t>shark</t>
+  </si>
+  <si>
+    <t>同样</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tóngyàng	</t>
+  </si>
+  <si>
+    <t>same</t>
+  </si>
+  <si>
+    <t>支</t>
+  </si>
+  <si>
+    <t>zhī</t>
+  </si>
+  <si>
+    <t>MW for pens, branch</t>
+  </si>
+  <si>
+    <t>拿</t>
+  </si>
+  <si>
+    <t>ná</t>
+  </si>
+  <si>
+    <t>告诉</t>
+  </si>
+  <si>
+    <t>gàosù</t>
+  </si>
+  <si>
+    <t>深</t>
+  </si>
+  <si>
+    <t>deep</t>
+  </si>
+  <si>
+    <t>怜悯</t>
+  </si>
+  <si>
+    <t>liánmǐn</t>
+  </si>
+  <si>
+    <t>mercy</t>
+  </si>
+  <si>
+    <t>原谅</t>
+  </si>
+  <si>
+    <t>yuánliàng</t>
+  </si>
+  <si>
+    <t>forgive</t>
+  </si>
+  <si>
+    <t>佳</t>
+  </si>
+  <si>
+    <t>jiā</t>
+  </si>
+  <si>
+    <t>原创</t>
+  </si>
+  <si>
+    <t>yuánchuàng</t>
+  </si>
+  <si>
+    <t>original</t>
+  </si>
+  <si>
+    <t>剧</t>
+  </si>
+  <si>
+    <t>drama</t>
+  </si>
+  <si>
+    <t>剧本</t>
+  </si>
+  <si>
+    <t>jùběn</t>
+  </si>
+  <si>
+    <t>script</t>
+  </si>
+  <si>
+    <t>独</t>
+  </si>
+  <si>
+    <t>alone</t>
+  </si>
+  <si>
+    <t>长处</t>
+  </si>
+  <si>
+    <t>chángchu</t>
+  </si>
+  <si>
+    <t>advantages</t>
+  </si>
+  <si>
+    <t>对于</t>
+  </si>
+  <si>
+    <t>duìyú</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>明摆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">míngbǎi	</t>
+  </si>
+  <si>
+    <t>obvious, clearly</t>
+  </si>
+  <si>
+    <t>厉害</t>
+  </si>
+  <si>
+    <t>lìhài</t>
+  </si>
+  <si>
+    <t>awesome, sharp</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chinese </t>
   </si>
   <si>
@@ -4499,12 +5804,6 @@
     <t>list, notice</t>
   </si>
   <si>
-    <t>拿</t>
-  </si>
-  <si>
-    <t>ná</t>
-  </si>
-  <si>
     <t>take</t>
   </si>
   <si>
@@ -4532,24 +5831,12 @@
     <t>static</t>
   </si>
   <si>
-    <t>脚</t>
-  </si>
-  <si>
-    <t>jiǎo</t>
-  </si>
-  <si>
-    <t>foot</t>
-  </si>
-  <si>
     <t>脚本</t>
   </si>
   <si>
     <t>jiǎoběn</t>
   </si>
   <si>
-    <t>script</t>
-  </si>
-  <si>
     <t>改</t>
   </si>
   <si>
@@ -4620,9 +5907,6 @@
   </si>
   <si>
     <t xml:space="preserve">fāngfǎ		</t>
-  </si>
-  <si>
-    <t>method</t>
   </si>
   <si>
     <t>不过</t>
@@ -10416,6 +11700,1711 @@
         <v>1450</v>
       </c>
     </row>
+    <row r="471">
+      <c r="A471" s="1" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C471" s="1" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C472" s="1" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C473" s="1" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C474" s="1" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C475" s="1" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C476" s="1" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C477" s="1" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C478" s="1" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C479" s="1" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C480" s="1" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C481" s="1" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C482" s="1" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C483" s="1" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C484" s="1" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C485" s="1" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C486" s="1" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C487" s="1" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C488" s="1" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C489" s="1" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C490" s="1" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C491" s="1" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C492" s="1" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C493" s="1" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C494" s="1" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C495" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C496" s="1" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C497" s="1" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C498" s="1" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C499" s="1" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C500" s="1" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C501" s="1" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="C502" s="1" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C503" s="1" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="C504" s="1" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C505" s="1" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C506" s="1" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C507" s="1" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C508" s="1" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C509" s="1" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C510" s="1" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C511" s="1" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C512" s="1" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C513" s="1" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C514" s="1" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C515" s="1" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C516" s="1" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C517" s="1" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C518" s="1" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C519" s="1" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C520" s="1" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C521" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C522" s="1" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C523" s="1" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C524" s="1" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C525" s="1" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C526" s="1" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C527" s="1" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C528" s="1" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C529" s="1" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C530" s="1" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C531" s="1" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C532" s="1" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C533" s="1" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C534" s="1" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C535" s="1" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C536" s="1" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C537" s="1" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C538" s="1" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C539" s="1" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C540" s="1" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C541" s="1" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C542" s="1" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C543" s="1" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C544" s="1" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C545" s="1" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C546" s="1" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C547" s="1" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B548" s="1" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C548" s="1" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B549" s="1" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C549" s="1" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C550" s="1" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="1" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C551" s="1" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C552" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="1" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C553" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="1" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C554" s="1" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="1" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C555" s="1" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="1" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C556" s="1" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="1" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C557" s="1" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="1" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C558" s="1" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C559" s="1" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="1" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C560" s="1" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B561" s="1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C561" s="1" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="1" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B562" s="1" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C562" s="1" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="1" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B563" s="1" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C563" s="1" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="1" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C564" s="1" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="1" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B565" s="1" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C565" s="1" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B566" s="1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C566" s="1" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="1" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B567" s="1" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C567" s="1" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C568" s="1" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="1" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B569" s="1" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C569" s="1" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="1" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B570" s="1" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C570" s="1" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B571" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C571" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="1" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B572" s="1" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C572" s="1" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="1" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C573" s="1" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="1" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B574" s="1" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C574" s="1" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="1" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B575" s="1" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C575" s="1" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="1" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B576" s="1" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C576" s="1" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="1" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B577" s="1" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C577" s="1" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="1" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B578" s="1" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C578" s="1" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="1" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B579" s="1" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C579" s="1" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="1" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B580" s="1" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C580" s="1" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B581" s="1" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C581" s="1" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B582" s="1" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C582" s="1" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="1" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B583" s="1" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C583" s="1" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B584" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C584" s="1" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="1" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B585" s="1" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C585" s="1" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B586" s="1" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C586" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B587" s="1" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C587" s="1" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B588" s="1" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C588" s="1" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B589" s="1" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C589" s="1" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B590" s="1" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C590" s="1" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B591" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="C591" s="1" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B592" s="1" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C592" s="1" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B593" s="1" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C593" s="1" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B594" s="1" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C594" s="1" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B595" s="1" t="s">
+        <v>1803</v>
+      </c>
+      <c r="C595" s="1" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="1" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B596" s="1" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C596" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B597" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C597" s="1" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B598" s="1" t="s">
+        <v>1811</v>
+      </c>
+      <c r="C598" s="1" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="1" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B599" s="1" t="s">
+        <v>1814</v>
+      </c>
+      <c r="C599" s="1" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B600" s="1" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C600" s="1" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B601" s="1" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C601" s="1" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B602" s="1" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C602" s="1" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B603" s="1" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C603" s="1" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B604" s="1" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C604" s="1" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B605" s="1" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C605" s="1" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B606" s="1" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C606" s="1" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B607" s="1" t="s">
+        <v>1837</v>
+      </c>
+      <c r="C607" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B608" s="1" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C608" s="1" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B609" s="1" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C609" s="1" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B610" s="1" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C610" s="1" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B611" s="1" t="s">
+        <v>1848</v>
+      </c>
+      <c r="C611" s="1" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B612" s="1" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C612" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B613" s="1" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C613" s="1" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B614" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C614" s="1" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B615" s="1" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C615" s="1" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B616" s="1" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C616" s="1" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B617" s="1" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C617" s="1" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B618" s="1" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C618" s="1" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B619" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C619" s="1" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="1" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B620" s="1" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C620" s="1" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="1" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B621" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="C621" s="1" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="1" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B622" s="1" t="s">
+        <v>1875</v>
+      </c>
+      <c r="C622" s="1" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="1" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B623" s="1" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C623" s="1" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="1" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B624" s="1" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C624" s="1" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="1" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B625" s="1" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C625" s="1" t="s">
+        <v>1885</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -10433,16 +13422,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1451</v>
+        <v>1886</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1452</v>
+        <v>1887</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1453</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="2">
@@ -10453,195 +13442,195 @@
         <v>858</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1454</v>
+        <v>1889</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1455</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>1456</v>
+        <v>1891</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1457</v>
+        <v>1892</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1458</v>
+        <v>1893</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1459</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>1460</v>
+        <v>1895</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1461</v>
+        <v>1896</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1462</v>
+        <v>1897</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1459</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>1463</v>
+        <v>1898</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1464</v>
+        <v>1899</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1465</v>
+        <v>1900</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1455</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>1466</v>
+        <v>1901</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1467</v>
+        <v>1902</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1468</v>
+        <v>1903</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1459</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>1469</v>
+        <v>1904</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1470</v>
+        <v>1905</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1471</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>1472</v>
+        <v>1907</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1473</v>
+        <v>1908</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1474</v>
+        <v>1909</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1459</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>1475</v>
+        <v>1910</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1476</v>
+        <v>1911</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1477</v>
+        <v>1912</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1459</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>1478</v>
+        <v>1913</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1479</v>
+        <v>1914</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1480</v>
+        <v>1915</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1459</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>1481</v>
+        <v>1916</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1482</v>
+        <v>1917</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1483</v>
+        <v>1918</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1459</v>
+        <v>1894</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>1484</v>
+        <v>1919</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>1485</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>1486</v>
+        <v>1921</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1487</v>
+        <v>1922</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1488</v>
+        <v>1923</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1459</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>1489</v>
+        <v>1924</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1490</v>
+        <v>1925</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1491</v>
+        <v>1926</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1459</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>1492</v>
+        <v>1927</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1493</v>
+        <v>1928</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1494</v>
+        <v>1929</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1459</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>1495</v>
+        <v>1850</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1496</v>
+        <v>1851</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1497</v>
+        <v>1930</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1498</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="16">
@@ -10652,38 +13641,38 @@
         <v>628</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1499</v>
+        <v>1932</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1455</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>1500</v>
+        <v>1933</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1501</v>
+        <v>1934</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1502</v>
+        <v>1935</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1459</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>1503</v>
+        <v>1936</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1504</v>
+        <v>1937</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1505</v>
+        <v>1938</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1459</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="19">
@@ -10697,49 +13686,49 @@
         <v>1344</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1459</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>1506</v>
+        <v>1819</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1507</v>
+        <v>1562</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1508</v>
+        <v>1622</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1459</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>1509</v>
+        <v>1939</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1510</v>
+        <v>1940</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1511</v>
+        <v>1871</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1459</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>1512</v>
+        <v>1941</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1513</v>
+        <v>1942</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1514</v>
+        <v>1943</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1459</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="23">
@@ -10753,35 +13742,35 @@
         <v>1000</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1455</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>1515</v>
+        <v>1944</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1516</v>
+        <v>1945</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1517</v>
+        <v>1946</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1459</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>1518</v>
+        <v>1947</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1519</v>
+        <v>1948</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1520</v>
+        <v>1949</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1455</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="26">
@@ -10789,122 +13778,122 @@
         <v>1177</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1521</v>
+        <v>1950</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>1179</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1455</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>1522</v>
+        <v>1951</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1523</v>
+        <v>1952</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1524</v>
+        <v>1953</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1459</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>1525</v>
+        <v>1954</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1526</v>
+        <v>1955</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1527</v>
+        <v>1956</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1459</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>1528</v>
+        <v>1957</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1529</v>
+        <v>1958</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1530</v>
+        <v>1959</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>1459</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>1531</v>
+        <v>1960</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1532</v>
+        <v>1961</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1533</v>
+        <v>1962</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1459</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>1534</v>
+        <v>1963</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1535</v>
+        <v>1964</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1536</v>
+        <v>1594</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>1459</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>1537</v>
+        <v>1965</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1538</v>
+        <v>1966</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1539</v>
+        <v>1967</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1540</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>1541</v>
+        <v>1969</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1542</v>
+        <v>1970</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1543</v>
+        <v>1971</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>1459</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>1544</v>
+        <v>1972</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1545</v>
+        <v>1973</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1546</v>
+        <v>1974</v>
       </c>
     </row>
   </sheetData>

--- a/static/Chinese Vocab Community.xlsx
+++ b/static/Chinese Vocab Community.xlsx
@@ -3,8 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="ep 1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="osu! writeup" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="ep 1 (~14 min)" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="news audio" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="john mulaney baby j pinyin note" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="ma yuan speech pinyin" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="osu! writeup" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2121" uniqueCount="1975">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2349" uniqueCount="2152">
   <si>
     <t>Characters</t>
   </si>
@@ -1277,7 +1280,7 @@
     <t>tǔ</t>
   </si>
   <si>
-    <t>earth</t>
+    <t>Earth</t>
   </si>
   <si>
     <t>学土学位</t>
@@ -5510,9 +5513,6 @@
     <t>dìqiú</t>
   </si>
   <si>
-    <t>Earth</t>
-  </si>
-  <si>
     <t>观看</t>
   </si>
   <si>
@@ -5672,6 +5672,555 @@
     <t>awesome, sharp</t>
   </si>
   <si>
+    <t>Character</t>
+  </si>
+  <si>
+    <t>File Name</t>
+  </si>
+  <si>
+    <t>Appearances</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>ge4wei4</t>
+  </si>
+  <si>
+    <t>everyone, dear, introduction</t>
+  </si>
+  <si>
+    <t>观众</t>
+  </si>
+  <si>
+    <t>guānzhòng</t>
+  </si>
+  <si>
+    <t>guan1zhong4</t>
+  </si>
+  <si>
+    <t>audience</t>
+  </si>
+  <si>
+    <t>晚上</t>
+  </si>
+  <si>
+    <t>wǎnshàng</t>
+  </si>
+  <si>
+    <t>wan3shang4</t>
+  </si>
+  <si>
+    <t>evening</t>
+  </si>
+  <si>
+    <t>好</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hǎo	</t>
+  </si>
+  <si>
+    <t>hao3</t>
+  </si>
+  <si>
+    <t>今天</t>
+  </si>
+  <si>
+    <t>jīntiān</t>
+  </si>
+  <si>
+    <t>jin1tian1</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>shi4</t>
+  </si>
+  <si>
+    <t>is, yes, etc</t>
+  </si>
+  <si>
+    <t>五月</t>
+  </si>
+  <si>
+    <t>wǔyuè</t>
+  </si>
+  <si>
+    <t>wu3yue4</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>十七</t>
+  </si>
+  <si>
+    <t>shíqī</t>
+  </si>
+  <si>
+    <t>shi2qi1</t>
+  </si>
+  <si>
+    <t>seventeen</t>
+  </si>
+  <si>
+    <t>号</t>
+  </si>
+  <si>
+    <t>hào</t>
+  </si>
+  <si>
+    <t>hao4</t>
+  </si>
+  <si>
+    <t>number, date</t>
+  </si>
+  <si>
+    <t>星期</t>
+  </si>
+  <si>
+    <t>xīngqī</t>
+  </si>
+  <si>
+    <t>xing1qi1</t>
+  </si>
+  <si>
+    <t>二</t>
+  </si>
+  <si>
+    <t>èr</t>
+  </si>
+  <si>
+    <t>er4</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>农历</t>
+  </si>
+  <si>
+    <t>nónglì</t>
+  </si>
+  <si>
+    <t>nong2li4</t>
+  </si>
+  <si>
+    <t>lunar calendar</t>
+  </si>
+  <si>
+    <t>四月</t>
+  </si>
+  <si>
+    <t>sìyuè</t>
+  </si>
+  <si>
+    <t>si4yue4</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>欢迎</t>
+  </si>
+  <si>
+    <t>huānyíng</t>
+  </si>
+  <si>
+    <t>huan1ying2</t>
+  </si>
+  <si>
+    <t>welcome</t>
+  </si>
+  <si>
+    <t>收看</t>
+  </si>
+  <si>
+    <t>shōukàn</t>
+  </si>
+  <si>
+    <t>shou1kan4</t>
+  </si>
+  <si>
+    <t>to watch (noun or verb)</t>
+  </si>
+  <si>
+    <t>新闻联播</t>
+  </si>
+  <si>
+    <t>xīnwénliánbō</t>
+  </si>
+  <si>
+    <t>xin1wen2lian2bo1</t>
+  </si>
+  <si>
+    <t>network news broadcast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">节目	</t>
+  </si>
+  <si>
+    <t>jiémù</t>
+  </si>
+  <si>
+    <t>jie2mu4</t>
+  </si>
+  <si>
+    <t>program, show, item</t>
+  </si>
+  <si>
+    <t>首先</t>
+  </si>
+  <si>
+    <t>shǒuxiān</t>
+  </si>
+  <si>
+    <t>shou3xian1</t>
+  </si>
+  <si>
+    <t>first (off)</t>
+  </si>
+  <si>
+    <t>为您介绍</t>
+  </si>
+  <si>
+    <t>wèinìnjièshào</t>
+  </si>
+  <si>
+    <t>wei4nin4jie4shao4</t>
+  </si>
+  <si>
+    <t>to introduce you</t>
+  </si>
+  <si>
+    <t>为 more formal, 给 informal</t>
+  </si>
+  <si>
+    <t>您</t>
+  </si>
+  <si>
+    <t>nín</t>
+  </si>
+  <si>
+    <t>nin2</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>的</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>possessive</t>
+  </si>
+  <si>
+    <t>主要</t>
+  </si>
+  <si>
+    <t>zhǔyào</t>
+  </si>
+  <si>
+    <t>zhu3yao4</t>
+  </si>
+  <si>
+    <t>primary</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>nèiróng</t>
+  </si>
+  <si>
+    <t>nei4rong2</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>character</t>
+  </si>
+  <si>
+    <t>pinyin</t>
+  </si>
+  <si>
+    <t>definition</t>
+  </si>
+  <si>
+    <t>去</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>两</t>
+  </si>
+  <si>
+    <t>liǎng</t>
+  </si>
+  <si>
+    <t>三</t>
+  </si>
+  <si>
+    <t>sān</t>
+  </si>
+  <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>年</t>
+  </si>
+  <si>
+    <t>nián</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>里</t>
+  </si>
+  <si>
+    <t>我</t>
+  </si>
+  <si>
+    <t>wǒ</t>
+  </si>
+  <si>
+    <t>i/me</t>
+  </si>
+  <si>
+    <t>下</t>
+  </si>
+  <si>
+    <t>xià</t>
+  </si>
+  <si>
+    <t>down, next</t>
+  </si>
+  <si>
+    <t>了</t>
+  </si>
+  <si>
+    <t>le</t>
+  </si>
+  <si>
+    <t>past tense, known, etc</t>
+  </si>
+  <si>
+    <t>很</t>
+  </si>
+  <si>
+    <t>hěn</t>
+  </si>
+  <si>
+    <t>very</t>
+  </si>
+  <si>
+    <t>大</t>
+  </si>
+  <si>
+    <t>dà</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>功</t>
+  </si>
+  <si>
+    <t>gōng</t>
+  </si>
+  <si>
+    <t>achievment</t>
+  </si>
+  <si>
+    <t>夫</t>
+  </si>
+  <si>
+    <t>husband/man</t>
+  </si>
+  <si>
+    <t>改</t>
+  </si>
+  <si>
+    <t>gǎi</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>变</t>
+  </si>
+  <si>
+    <t>biàn</t>
+  </si>
+  <si>
+    <t>自</t>
+  </si>
+  <si>
+    <t>zì</t>
+  </si>
+  <si>
+    <t>己</t>
+  </si>
+  <si>
+    <t>终</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>于</t>
+  </si>
+  <si>
+    <t>at/for/in preposition</t>
+  </si>
+  <si>
+    <t>明</t>
+  </si>
+  <si>
+    <t>míng</t>
+  </si>
+  <si>
+    <t>bright, next</t>
+  </si>
+  <si>
+    <t>白</t>
+  </si>
+  <si>
+    <t>bái</t>
+  </si>
+  <si>
+    <t>white, bright</t>
+  </si>
+  <si>
+    <t>只</t>
+  </si>
+  <si>
+    <t>要</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>一</t>
+  </si>
+  <si>
+    <t>yī</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>直</t>
+  </si>
+  <si>
+    <t>straight, always</t>
+  </si>
+  <si>
+    <t>受</t>
+  </si>
+  <si>
+    <t>by, accept</t>
+  </si>
+  <si>
+    <t>到</t>
+  </si>
+  <si>
+    <t>arrive</t>
+  </si>
+  <si>
+    <t>关</t>
+  </si>
+  <si>
+    <t>guān</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zhù	</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jiù	</t>
+  </si>
+  <si>
+    <t>then, already, at once</t>
+  </si>
+  <si>
+    <t>不</t>
+  </si>
+  <si>
+    <t>bù</t>
+  </si>
+  <si>
+    <t>no, not</t>
+  </si>
+  <si>
+    <t>able, association</t>
+  </si>
+  <si>
+    <t>有</t>
+  </si>
+  <si>
+    <t>yǒu</t>
+  </si>
+  <si>
+    <t>have</t>
+  </si>
+  <si>
+    <t>case, thing</t>
+  </si>
+  <si>
+    <t>char</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meaning </t>
+  </si>
+  <si>
+    <t xml:space="preserve">大	</t>
+  </si>
+  <si>
+    <t>家</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>hǎo</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">欢	</t>
+  </si>
+  <si>
+    <t>huān</t>
+  </si>
+  <si>
+    <t>迎</t>
+  </si>
+  <si>
+    <t>yíng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dào	</t>
+  </si>
+  <si>
+    <t>来</t>
+  </si>
+  <si>
+    <t>lái</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chinese </t>
   </si>
   <si>
@@ -5837,15 +6386,6 @@
     <t>jiǎoběn</t>
   </si>
   <si>
-    <t>改</t>
-  </si>
-  <si>
-    <t>gǎi</t>
-  </si>
-  <si>
-    <t>change</t>
-  </si>
-  <si>
     <t>改写</t>
   </si>
   <si>
@@ -5928,12 +6468,6 @@
   </si>
   <si>
     <t xml:space="preserve">account, tent </t>
-  </si>
-  <si>
-    <t>号</t>
-  </si>
-  <si>
-    <t>hào</t>
   </si>
   <si>
     <t xml:space="preserve">number </t>
@@ -5993,6 +6527,18 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -13182,26 +13728,26 @@
         <v>1831</v>
       </c>
       <c r="C605" s="1" t="s">
-        <v>1832</v>
+        <v>421</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B606" s="1" t="s">
         <v>1833</v>
       </c>
-      <c r="B606" s="1" t="s">
+      <c r="C606" s="1" t="s">
         <v>1834</v>
-      </c>
-      <c r="C606" s="1" t="s">
-        <v>1835</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B607" s="1" t="s">
         <v>1836</v>
-      </c>
-      <c r="B607" s="1" t="s">
-        <v>1837</v>
       </c>
       <c r="C607" s="1" t="s">
         <v>246</v>
@@ -13209,54 +13755,54 @@
     </row>
     <row r="608">
       <c r="A608" s="1" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B608" s="1" t="s">
         <v>1838</v>
       </c>
-      <c r="B608" s="1" t="s">
+      <c r="C608" s="1" t="s">
         <v>1839</v>
-      </c>
-      <c r="C608" s="1" t="s">
-        <v>1840</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B609" s="1" t="s">
         <v>1841</v>
       </c>
-      <c r="B609" s="1" t="s">
+      <c r="C609" s="1" t="s">
         <v>1842</v>
-      </c>
-      <c r="C609" s="1" t="s">
-        <v>1843</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B610" s="1" t="s">
         <v>1844</v>
       </c>
-      <c r="B610" s="1" t="s">
+      <c r="C610" s="1" t="s">
         <v>1845</v>
-      </c>
-      <c r="C610" s="1" t="s">
-        <v>1846</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B611" s="1" t="s">
         <v>1847</v>
       </c>
-      <c r="B611" s="1" t="s">
+      <c r="C611" s="1" t="s">
         <v>1848</v>
-      </c>
-      <c r="C611" s="1" t="s">
-        <v>1849</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B612" s="1" t="s">
         <v>1850</v>
-      </c>
-      <c r="B612" s="1" t="s">
-        <v>1851</v>
       </c>
       <c r="C612" s="1" t="s">
         <v>674</v>
@@ -13264,10 +13810,10 @@
     </row>
     <row r="613">
       <c r="A613" s="1" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B613" s="1" t="s">
         <v>1852</v>
-      </c>
-      <c r="B613" s="1" t="s">
-        <v>1853</v>
       </c>
       <c r="C613" s="1" t="s">
         <v>1148</v>
@@ -13275,43 +13821,43 @@
     </row>
     <row r="614">
       <c r="A614" s="1" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="B614" s="1" t="s">
         <v>1570</v>
       </c>
       <c r="C614" s="1" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="s">
+        <v>1855</v>
+      </c>
+      <c r="B615" s="1" t="s">
         <v>1856</v>
       </c>
-      <c r="B615" s="1" t="s">
+      <c r="C615" s="1" t="s">
         <v>1857</v>
-      </c>
-      <c r="C615" s="1" t="s">
-        <v>1858</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B616" s="1" t="s">
         <v>1859</v>
       </c>
-      <c r="B616" s="1" t="s">
+      <c r="C616" s="1" t="s">
         <v>1860</v>
-      </c>
-      <c r="C616" s="1" t="s">
-        <v>1861</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B617" s="1" t="s">
         <v>1862</v>
-      </c>
-      <c r="B617" s="1" t="s">
-        <v>1863</v>
       </c>
       <c r="C617" s="1" t="s">
         <v>1801</v>
@@ -13319,90 +13865,90 @@
     </row>
     <row r="618">
       <c r="A618" s="1" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B618" s="1" t="s">
         <v>1864</v>
       </c>
-      <c r="B618" s="1" t="s">
+      <c r="C618" s="1" t="s">
         <v>1865</v>
-      </c>
-      <c r="C618" s="1" t="s">
-        <v>1866</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="B619" s="1" t="s">
         <v>817</v>
       </c>
       <c r="C619" s="1" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B620" s="1" t="s">
         <v>1869</v>
       </c>
-      <c r="B620" s="1" t="s">
+      <c r="C620" s="1" t="s">
         <v>1870</v>
-      </c>
-      <c r="C620" s="1" t="s">
-        <v>1871</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="B621" s="1" t="s">
         <v>858</v>
       </c>
       <c r="C621" s="1" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B622" s="1" t="s">
         <v>1874</v>
       </c>
-      <c r="B622" s="1" t="s">
+      <c r="C622" s="1" t="s">
         <v>1875</v>
-      </c>
-      <c r="C622" s="1" t="s">
-        <v>1876</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B623" s="1" t="s">
         <v>1877</v>
       </c>
-      <c r="B623" s="1" t="s">
+      <c r="C623" s="1" t="s">
         <v>1878</v>
-      </c>
-      <c r="C623" s="1" t="s">
-        <v>1879</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B624" s="1" t="s">
         <v>1880</v>
       </c>
-      <c r="B624" s="1" t="s">
+      <c r="C624" s="1" t="s">
         <v>1881</v>
-      </c>
-      <c r="C624" s="1" t="s">
-        <v>1882</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B625" s="1" t="s">
         <v>1883</v>
       </c>
-      <c r="B625" s="1" t="s">
+      <c r="C625" s="1" t="s">
         <v>1884</v>
-      </c>
-      <c r="C625" s="1" t="s">
-        <v>1885</v>
       </c>
     </row>
   </sheetData>
@@ -13422,16 +13968,948 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1886</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1887</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1889</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1890</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1892</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1893</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1894</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1897</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1801</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1904</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1905</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1907</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1908</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1910</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1911</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1912</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1914</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1915</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1916</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1920</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1923</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1925</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1926</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>1927</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1930</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>1931</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1934</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>1935</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1938</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1939</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1941</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1942</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>1943</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>1944</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1945</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1946</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>1947</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1950</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>1951</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1953</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1954</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>1955</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1957</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1958</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>1959</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1962</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1963</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>1964</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1966</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>1966</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1969</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>1970</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1973</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>1974</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>1975</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1977</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>1981</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1982</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>1983</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1984</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>1986</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1987</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>1989</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1991</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>1993</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1994</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1997</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>2003</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>2006</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>2011</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>2013</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>2014</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>2015</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>2016</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>2025</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>2026</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>2029</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>2031</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>2032</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>2034</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>2036</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>2038</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>2040</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>2041</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>2042</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>2044</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>2046</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>2047</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>2050</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>2051</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1977</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2003</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>2057</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>2061</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2062</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>2063</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>2038</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>2066</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>2067</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>2068</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2069</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>1888</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="2">
@@ -13442,195 +14920,195 @@
         <v>858</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1889</v>
+        <v>2071</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1890</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>1891</v>
+        <v>2073</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1892</v>
+        <v>2074</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1893</v>
+        <v>2075</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1894</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>1895</v>
+        <v>2077</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1896</v>
+        <v>2078</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1897</v>
+        <v>2079</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1894</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>1898</v>
+        <v>2080</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1899</v>
+        <v>2081</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1900</v>
+        <v>2082</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1890</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>1901</v>
+        <v>2083</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1902</v>
+        <v>2084</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1903</v>
+        <v>2085</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1894</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>1904</v>
+        <v>2086</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1905</v>
+        <v>2087</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1906</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>1907</v>
+        <v>2089</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1908</v>
+        <v>2090</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1909</v>
+        <v>2091</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1894</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>1910</v>
+        <v>2092</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1911</v>
+        <v>2093</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1912</v>
+        <v>2094</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1894</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>1913</v>
+        <v>2095</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1914</v>
+        <v>2096</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1915</v>
+        <v>2097</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1894</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>1916</v>
+        <v>2098</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1917</v>
+        <v>2099</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1918</v>
+        <v>2100</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1894</v>
+        <v>2076</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>1919</v>
+        <v>2101</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>1920</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>1921</v>
+        <v>2103</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1922</v>
+        <v>2104</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1923</v>
+        <v>2105</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1894</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>1924</v>
+        <v>2106</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1925</v>
+        <v>2107</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1926</v>
+        <v>2108</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1894</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>1927</v>
+        <v>2109</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1928</v>
+        <v>2110</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1929</v>
+        <v>2111</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1894</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>1850</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>1851</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>1930</v>
+        <v>2112</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1931</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="16">
@@ -13641,38 +15119,38 @@
         <v>628</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1932</v>
+        <v>2114</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1890</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>1933</v>
+        <v>2115</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1934</v>
+        <v>2116</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1935</v>
+        <v>2117</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1894</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>1936</v>
+        <v>2118</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1937</v>
+        <v>2119</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1938</v>
+        <v>2120</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1894</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="19">
@@ -13686,7 +15164,7 @@
         <v>1344</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1894</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="20">
@@ -13700,35 +15178,35 @@
         <v>1622</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1894</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>1939</v>
+        <v>2121</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1940</v>
+        <v>2122</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1894</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>1941</v>
+        <v>2010</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1942</v>
+        <v>2011</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1943</v>
+        <v>2012</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1894</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="23">
@@ -13742,35 +15220,35 @@
         <v>1000</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1890</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>1944</v>
+        <v>2123</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1945</v>
+        <v>2124</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1946</v>
+        <v>2125</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1894</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>1947</v>
+        <v>2126</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1948</v>
+        <v>2127</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1949</v>
+        <v>2128</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1890</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="26">
@@ -13778,122 +15256,122 @@
         <v>1177</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1950</v>
+        <v>2129</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>1179</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1890</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>1951</v>
+        <v>2130</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1952</v>
+        <v>2131</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1953</v>
+        <v>2132</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1894</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>1954</v>
+        <v>2133</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1955</v>
+        <v>2134</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1956</v>
+        <v>2135</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1894</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>1957</v>
+        <v>2136</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1958</v>
+        <v>2137</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1959</v>
+        <v>2138</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>1894</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>1960</v>
+        <v>2139</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1961</v>
+        <v>2140</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1962</v>
+        <v>2141</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1894</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>1963</v>
+        <v>2142</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1964</v>
+        <v>2143</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>1594</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>1894</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>1965</v>
+        <v>2144</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1966</v>
+        <v>2145</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1967</v>
+        <v>2146</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1968</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>1969</v>
+        <v>2148</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1970</v>
+        <v>2149</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1971</v>
+        <v>2150</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>1894</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>1972</v>
+        <v>1917</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1973</v>
+        <v>1918</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1974</v>
+        <v>2151</v>
       </c>
     </row>
   </sheetData>

--- a/static/Chinese Vocab Community.xlsx
+++ b/static/Chinese Vocab Community.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2349" uniqueCount="2152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2421" uniqueCount="2223">
   <si>
     <t>Characters</t>
   </si>
@@ -5943,6 +5943,219 @@
   </si>
   <si>
     <t>content</t>
+  </si>
+  <si>
+    <t>上海</t>
+  </si>
+  <si>
+    <t>shànghǎi</t>
+  </si>
+  <si>
+    <t>shang4hai3</t>
+  </si>
+  <si>
+    <t>Shanghai</t>
+  </si>
+  <si>
+    <t>本轮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">běnlún	</t>
+  </si>
+  <si>
+    <t>ben3lun2</t>
+  </si>
+  <si>
+    <t>current round</t>
+  </si>
+  <si>
+    <t>疫情</t>
+  </si>
+  <si>
+    <t>yìqíng</t>
+  </si>
+  <si>
+    <t>yi4qing2</t>
+  </si>
+  <si>
+    <t>epidemic</t>
+  </si>
+  <si>
+    <t>以来</t>
+  </si>
+  <si>
+    <t>yǐlái</t>
+  </si>
+  <si>
+    <t>yi3lai2</t>
+  </si>
+  <si>
+    <t>since</t>
+  </si>
+  <si>
+    <t>许许多多</t>
+  </si>
+  <si>
+    <t>xǔxǔduōduō</t>
+  </si>
+  <si>
+    <t>xu3xu3duo1duo1</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t xml:space="preserve">平凡	</t>
+  </si>
+  <si>
+    <t>píngfán</t>
+  </si>
+  <si>
+    <t>ping2fan2</t>
+  </si>
+  <si>
+    <t>ordinary</t>
+  </si>
+  <si>
+    <t>劳动者</t>
+  </si>
+  <si>
+    <t>láodòngzhě</t>
+  </si>
+  <si>
+    <t>lao2dong4zhe3</t>
+  </si>
+  <si>
+    <t>workers</t>
+  </si>
+  <si>
+    <t>都</t>
+  </si>
+  <si>
+    <t>dōu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dou1	</t>
+  </si>
+  <si>
+    <t>all/both/many</t>
+  </si>
+  <si>
+    <t>在</t>
+  </si>
+  <si>
+    <t>zài</t>
+  </si>
+  <si>
+    <t>zai4</t>
+  </si>
+  <si>
+    <t>默默</t>
+  </si>
+  <si>
+    <t>mòmò</t>
+  </si>
+  <si>
+    <t>mo4mo4</t>
+  </si>
+  <si>
+    <t>silently</t>
+  </si>
+  <si>
+    <t>行动</t>
+  </si>
+  <si>
+    <t>xíngdòng</t>
+  </si>
+  <si>
+    <t>xing2dong4</t>
+  </si>
+  <si>
+    <t>working</t>
+  </si>
+  <si>
+    <t>无私</t>
+  </si>
+  <si>
+    <t>wúsī</t>
+  </si>
+  <si>
+    <t>wu2si1</t>
+  </si>
+  <si>
+    <t>selflessness</t>
+  </si>
+  <si>
+    <t>奉献</t>
+  </si>
+  <si>
+    <t>fèngxiàn</t>
+  </si>
+  <si>
+    <t>feng4xian4</t>
+  </si>
+  <si>
+    <t>dedicate</t>
+  </si>
+  <si>
+    <t>他们</t>
+  </si>
+  <si>
+    <t>tāmen</t>
+  </si>
+  <si>
+    <t>ta1men</t>
+  </si>
+  <si>
+    <t>they (plural)</t>
+  </si>
+  <si>
+    <t>用</t>
+  </si>
+  <si>
+    <t>yòng</t>
+  </si>
+  <si>
+    <t>yong4</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>抗击</t>
+  </si>
+  <si>
+    <t>kàngjī</t>
+  </si>
+  <si>
+    <t>kang4ji1</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>共同</t>
+  </si>
+  <si>
+    <t>gòngtóng</t>
+  </si>
+  <si>
+    <t>gong4tong2</t>
+  </si>
+  <si>
+    <t>jointly, commonly</t>
+  </si>
+  <si>
+    <t>守护者</t>
+  </si>
+  <si>
+    <t>shǒuhùzhě</t>
+  </si>
+  <si>
+    <t>shou3hu4zhe3</t>
+  </si>
+  <si>
+    <t>guard</t>
   </si>
   <si>
     <t>character</t>
@@ -14343,7 +14556,7 @@
         <v>1967</v>
       </c>
       <c r="E22" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="23">
@@ -14377,6 +14590,312 @@
         <v>1975</v>
       </c>
       <c r="E24" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1977</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1981</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>1982</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>1983</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1985</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>1986</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>1987</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1989</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>1990</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>1991</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>1992</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1993</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>1994</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>1995</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1997</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>1999</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>2002</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>2003</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>2005</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>2006</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>2007</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>2009</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>2010</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>1644</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>2012</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>2013</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>2014</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>2015</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>2016</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>2017</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>2019</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>2020</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>2021</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>2022</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>2025</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>2026</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>2029</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>2030</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>2031</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>2032</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>2033</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>2034</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>2036</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>2037</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>2038</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>2039</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>2040</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>2041</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>2042</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>2043</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>2044</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>2045</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>2046</v>
+      </c>
+      <c r="E42" s="1">
         <v>1.0</v>
       </c>
     </row>
@@ -14397,13 +14916,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1976</v>
+        <v>2047</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1977</v>
+        <v>2048</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1978</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="2">
@@ -14419,21 +14938,21 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>1979</v>
+        <v>2050</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1419</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1980</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>1981</v>
+        <v>2052</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1982</v>
+        <v>2053</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1927</v>
@@ -14441,29 +14960,29 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>1983</v>
+        <v>2054</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1984</v>
+        <v>2055</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1985</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>1986</v>
+        <v>2057</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1987</v>
+        <v>2058</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1988</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>1989</v>
+        <v>2060</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>755</v>
@@ -14474,109 +14993,109 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>1990</v>
+        <v>2061</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1991</v>
+        <v>2062</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1992</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>1993</v>
+        <v>2064</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1994</v>
+        <v>2065</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1995</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>1996</v>
+        <v>2067</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1997</v>
+        <v>2068</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1998</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>1999</v>
+        <v>2070</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>2000</v>
+        <v>2071</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>2001</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>2002</v>
+        <v>2073</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>2003</v>
+        <v>2074</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>2004</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>2005</v>
+        <v>2076</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>2006</v>
+        <v>2077</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>2007</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>2008</v>
+        <v>2079</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>1791</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>2009</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>2010</v>
+        <v>2081</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>2011</v>
+        <v>2082</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>2012</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>2013</v>
+        <v>2084</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>2014</v>
+        <v>2085</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>2012</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>2015</v>
+        <v>2086</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>2016</v>
+        <v>2087</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>118</v>
@@ -14584,7 +15103,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>2017</v>
+        <v>2088</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>1023</v>
@@ -14595,51 +15114,51 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>2018</v>
+        <v>2089</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>886</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>2019</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>2020</v>
+        <v>2091</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>1692</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>2021</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>2022</v>
+        <v>2093</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>2023</v>
+        <v>2094</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>2024</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>2025</v>
+        <v>2096</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>2026</v>
+        <v>2097</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>2027</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>2028</v>
+        <v>2099</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>473</v>
@@ -14650,65 +15169,65 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>2029</v>
+        <v>2100</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>1477</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>2030</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>2031</v>
+        <v>2102</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>2032</v>
+        <v>2103</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>2033</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>2034</v>
+        <v>2105</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>390</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>2035</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>2036</v>
+        <v>2107</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>971</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>2037</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>2038</v>
+        <v>2109</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>1500</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>2039</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>2040</v>
+        <v>2111</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>2041</v>
+        <v>2112</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>1284</v>
@@ -14719,10 +15238,10 @@
         <v>705</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>2042</v>
+        <v>2113</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>2043</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="31">
@@ -14730,21 +15249,21 @@
         <v>446</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>2044</v>
+        <v>2115</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>2045</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>2046</v>
+        <v>2117</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>2047</v>
+        <v>2118</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>2048</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="33">
@@ -14755,18 +15274,18 @@
         <v>295</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>2049</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>2050</v>
+        <v>2121</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>2051</v>
+        <v>2122</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>2052</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="35">
@@ -14777,7 +15296,7 @@
         <v>231</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>2053</v>
+        <v>2124</v>
       </c>
     </row>
   </sheetData>
@@ -14797,35 +15316,35 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>2054</v>
+        <v>2125</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1977</v>
+        <v>2048</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2055</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>2056</v>
+        <v>2127</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2003</v>
+        <v>2074</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2004</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>2057</v>
+        <v>2128</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1862</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2058</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="4">
@@ -14833,54 +15352,54 @@
         <v>1899</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2059</v>
+        <v>2130</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>2060</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>2061</v>
+        <v>2132</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2062</v>
+        <v>2133</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>2060</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>2063</v>
+        <v>2134</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2064</v>
+        <v>2135</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>2060</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>2038</v>
+        <v>2109</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>2065</v>
+        <v>2136</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>2039</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>2066</v>
+        <v>2137</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2067</v>
+        <v>2138</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>2039</v>
+        <v>2110</v>
       </c>
     </row>
   </sheetData>
@@ -14900,16 +15419,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>2068</v>
+        <v>2139</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2069</v>
+        <v>2140</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2070</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="2">
@@ -14920,181 +15439,181 @@
         <v>858</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2071</v>
+        <v>2142</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>2072</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>2073</v>
+        <v>2144</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2074</v>
+        <v>2145</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2075</v>
+        <v>2146</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>2076</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>2077</v>
+        <v>2148</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2078</v>
+        <v>2149</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>2079</v>
+        <v>2150</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>2076</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>2080</v>
+        <v>2151</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2081</v>
+        <v>2152</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>2082</v>
+        <v>2153</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>2072</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>2083</v>
+        <v>2154</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2084</v>
+        <v>2155</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>2085</v>
+        <v>2156</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>2076</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>2086</v>
+        <v>2157</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>2087</v>
+        <v>2158</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>2088</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>2089</v>
+        <v>2160</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2090</v>
+        <v>2161</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>2091</v>
+        <v>2162</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>2076</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>2092</v>
+        <v>2163</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>2093</v>
+        <v>2164</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>2094</v>
+        <v>2165</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>2076</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>2095</v>
+        <v>2166</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>2096</v>
+        <v>2167</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>2097</v>
+        <v>2168</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>2076</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>2098</v>
+        <v>2169</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>2099</v>
+        <v>2170</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>2100</v>
+        <v>2171</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>2076</v>
+        <v>2147</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>2101</v>
+        <v>2172</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>2102</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>2103</v>
+        <v>2174</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>2104</v>
+        <v>2175</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>2105</v>
+        <v>2176</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>2076</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>2106</v>
+        <v>2177</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>2107</v>
+        <v>2178</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>2108</v>
+        <v>2179</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>2076</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>2109</v>
+        <v>2180</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>2110</v>
+        <v>2181</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>2111</v>
+        <v>2182</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>2076</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="15">
@@ -15105,10 +15624,10 @@
         <v>1850</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>2112</v>
+        <v>2183</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>2113</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="16">
@@ -15119,38 +15638,38 @@
         <v>628</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>2114</v>
+        <v>2185</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>2072</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>2115</v>
+        <v>2186</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>2116</v>
+        <v>2187</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>2117</v>
+        <v>2188</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>2076</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>2118</v>
+        <v>2189</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>2119</v>
+        <v>2190</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>2120</v>
+        <v>2191</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>2076</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="19">
@@ -15164,7 +15683,7 @@
         <v>1344</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>2076</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="20">
@@ -15178,35 +15697,35 @@
         <v>1622</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>2076</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>2121</v>
+        <v>2192</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>2122</v>
+        <v>2193</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>1870</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>2076</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>2010</v>
+        <v>2081</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>2011</v>
+        <v>2082</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>2012</v>
+        <v>2083</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>2076</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="23">
@@ -15220,35 +15739,35 @@
         <v>1000</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>2072</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>2123</v>
+        <v>2194</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>2124</v>
+        <v>2195</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>2125</v>
+        <v>2196</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>2076</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>2126</v>
+        <v>2197</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>2127</v>
+        <v>2198</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>2128</v>
+        <v>2199</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>2072</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="26">
@@ -15256,111 +15775,111 @@
         <v>1177</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>2129</v>
+        <v>2200</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>1179</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>2072</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>2130</v>
+        <v>2201</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>2131</v>
+        <v>2202</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>2132</v>
+        <v>2203</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>2076</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>2133</v>
+        <v>2204</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>2134</v>
+        <v>2205</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>2135</v>
+        <v>2206</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>2076</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>2136</v>
+        <v>2207</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>2137</v>
+        <v>2208</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>2138</v>
+        <v>2209</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>2076</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>2139</v>
+        <v>2210</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>2140</v>
+        <v>2211</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>2141</v>
+        <v>2212</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>2076</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>2142</v>
+        <v>2213</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>2143</v>
+        <v>2214</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>1594</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>2076</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>2144</v>
+        <v>2215</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>2145</v>
+        <v>2216</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>2146</v>
+        <v>2217</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>2147</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>2148</v>
+        <v>2219</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>2149</v>
+        <v>2220</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>2150</v>
+        <v>2221</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>2076</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="34">
@@ -15371,7 +15890,7 @@
         <v>1918</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>2151</v>
+        <v>2222</v>
       </c>
     </row>
   </sheetData>
